--- a/analysen/choropleth_DIE LINKE.xlsx
+++ b/analysen/choropleth_DIE LINKE.xlsx
@@ -2933,10 +2933,10 @@
         <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>6.18665108806777</v>
+        <v>6.17105895721341</v>
       </c>
       <c r="G2" t="n">
-        <v>-4.82937271560652</v>
+        <v>-4.84496484646087</v>
       </c>
     </row>
     <row r="3">
@@ -2956,10 +2956,10 @@
         <v>9</v>
       </c>
       <c r="F3" t="n">
-        <v>5.98680075424261</v>
+        <v>5.97220807110219</v>
       </c>
       <c r="G3" t="n">
-        <v>-4.43524758804508</v>
+        <v>-4.4498402711855</v>
       </c>
     </row>
     <row r="4">
@@ -2979,10 +2979,10 @@
         <v>9</v>
       </c>
       <c r="F4" t="n">
-        <v>6.91669412575263</v>
+        <v>6.89686071865946</v>
       </c>
       <c r="G4" t="n">
-        <v>-3.48106732198398</v>
+        <v>-3.50090072907715</v>
       </c>
     </row>
     <row r="5">
@@ -3002,10 +3002,10 @@
         <v>9</v>
       </c>
       <c r="F5" t="n">
-        <v>3.87003750619206</v>
+        <v>3.85622240046539</v>
       </c>
       <c r="G5" t="n">
-        <v>-3.81524465895939</v>
+        <v>-3.82905976468606</v>
       </c>
     </row>
     <row r="6">
@@ -3025,10 +3025,10 @@
         <v>9</v>
       </c>
       <c r="F6" t="n">
-        <v>8.52176549354488</v>
+        <v>8.48254702746203</v>
       </c>
       <c r="G6" t="n">
-        <v>-3.13005971138523</v>
+        <v>-3.16927817746809</v>
       </c>
     </row>
     <row r="7">
@@ -3048,10 +3048,10 @@
         <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>1.99100834938985</v>
+        <v>2.01429499675114</v>
       </c>
       <c r="G7" t="n">
-        <v>-3.50899165061015</v>
+        <v>-3.48570500324886</v>
       </c>
     </row>
     <row r="8">
@@ -3071,10 +3071,10 @@
         <v>9</v>
       </c>
       <c r="F8" t="n">
-        <v>2.50723240115718</v>
+        <v>2.51329144514258</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.20361097233679</v>
+        <v>-1.1975519283514</v>
       </c>
     </row>
     <row r="9">
@@ -3094,10 +3094,10 @@
         <v>9</v>
       </c>
       <c r="F9" t="n">
-        <v>2.85998507833872</v>
+        <v>2.85359801488834</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.63870570956892</v>
+        <v>-2.6450927730193</v>
       </c>
     </row>
     <row r="10">
@@ -3117,10 +3117,10 @@
         <v>9</v>
       </c>
       <c r="F10" t="n">
-        <v>2.89804469273743</v>
+        <v>2.88094411662617</v>
       </c>
       <c r="G10" t="n">
-        <v>-2.13425724537886</v>
+        <v>-2.15135782149012</v>
       </c>
     </row>
     <row r="11">
@@ -3140,10 +3140,10 @@
         <v>9</v>
       </c>
       <c r="F11" t="n">
-        <v>2.76673800061143</v>
+        <v>2.76167226121453</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.4980692698367</v>
+        <v>-2.50313500923361</v>
       </c>
     </row>
     <row r="12">
@@ -3163,10 +3163,10 @@
         <v>9</v>
       </c>
       <c r="F12" t="n">
-        <v>3.25149303251493</v>
+        <v>3.24503311258278</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.04375728840933</v>
+        <v>-2.05021720834148</v>
       </c>
     </row>
     <row r="13">
@@ -3186,10 +3186,10 @@
         <v>9</v>
       </c>
       <c r="F13" t="n">
-        <v>2.87529254429957</v>
+        <v>2.87049399198932</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.71581557291162</v>
+        <v>-2.72061412522186</v>
       </c>
     </row>
     <row r="14">
@@ -3209,10 +3209,10 @@
         <v>9</v>
       </c>
       <c r="F14" t="n">
-        <v>2.30575740637228</v>
+        <v>2.30382574699805</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.13321475636862</v>
+        <v>-3.13514641574285</v>
       </c>
     </row>
     <row r="15">
@@ -3235,7 +3235,7 @@
         <v>2.83632578714546</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.39395812452647</v>
+        <v>-3.39395812452646</v>
       </c>
     </row>
     <row r="16">
@@ -3278,10 +3278,10 @@
         <v>9</v>
       </c>
       <c r="F17" t="n">
-        <v>1.58870255957635</v>
+        <v>1.5817223198594</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.45257001136089</v>
+        <v>-2.45955025107783</v>
       </c>
     </row>
     <row r="18">
@@ -3301,10 +3301,10 @@
         <v>9</v>
       </c>
       <c r="F18" t="n">
-        <v>1.94734944103859</v>
+        <v>1.95086705202312</v>
       </c>
       <c r="G18" t="n">
-        <v>-2.8596425473081</v>
+        <v>-2.85612493632356</v>
       </c>
     </row>
     <row r="19">
@@ -3324,10 +3324,10 @@
         <v>9</v>
       </c>
       <c r="F19" t="n">
-        <v>2.47747747747748</v>
+        <v>2.47429305912596</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.53423212439606</v>
+        <v>-2.53741654274757</v>
       </c>
     </row>
     <row r="20">
@@ -3347,10 +3347,10 @@
         <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>3.14396028681743</v>
+        <v>3.13014827018122</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.35888601299282</v>
+        <v>-2.37269802962903</v>
       </c>
     </row>
     <row r="21">
@@ -3370,10 +3370,10 @@
         <v>9</v>
       </c>
       <c r="F21" t="n">
-        <v>2.1849963583394</v>
+        <v>2.187386073642</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.15877491463541</v>
+        <v>-3.15638519933281</v>
       </c>
     </row>
     <row r="22">
@@ -3393,10 +3393,10 @@
         <v>9</v>
       </c>
       <c r="F22" t="n">
-        <v>3.0469741853576</v>
+        <v>3.03413400758533</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.60156137949596</v>
+        <v>-2.61440155726822</v>
       </c>
     </row>
     <row r="23">
@@ -3416,10 +3416,10 @@
         <v>9</v>
       </c>
       <c r="F23" t="n">
-        <v>2.69207950163156</v>
+        <v>2.68352184519849</v>
       </c>
       <c r="G23" t="n">
-        <v>-1.79340862501751</v>
+        <v>-1.80196628145058</v>
       </c>
     </row>
     <row r="24">
@@ -3439,10 +3439,10 @@
         <v>9</v>
       </c>
       <c r="F24" t="n">
-        <v>2.0253682487725</v>
+        <v>2.01958384332925</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.06992541128195</v>
+        <v>-3.0757098167252</v>
       </c>
     </row>
     <row r="25">
@@ -3462,10 +3462,10 @@
         <v>9</v>
       </c>
       <c r="F25" t="n">
-        <v>3.5593965138421</v>
+        <v>3.55523043160205</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.22314998115075</v>
+        <v>-4.2273160633908</v>
       </c>
     </row>
     <row r="26">
@@ -3485,10 +3485,10 @@
         <v>9</v>
       </c>
       <c r="F26" t="n">
-        <v>2.79582892549494</v>
+        <v>2.78950542822678</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.58301780291857</v>
+        <v>-3.58934130018673</v>
       </c>
     </row>
     <row r="27">
@@ -3508,10 +3508,10 @@
         <v>9</v>
       </c>
       <c r="F27" t="n">
-        <v>2.65098314606742</v>
+        <v>2.64772926529897</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.91583713043028</v>
+        <v>-2.91909101119873</v>
       </c>
     </row>
     <row r="28">
@@ -3531,10 +3531,10 @@
         <v>9</v>
       </c>
       <c r="F28" t="n">
-        <v>2.99194476409666</v>
+        <v>2.99309286262471</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.27538931080137</v>
+        <v>-4.27424121227332</v>
       </c>
     </row>
     <row r="29">
@@ -3554,10 +3554,10 @@
         <v>9</v>
       </c>
       <c r="F29" t="n">
-        <v>2.5406394660351</v>
+        <v>2.53490870032223</v>
       </c>
       <c r="G29" t="n">
-        <v>-2.88092093664947</v>
+        <v>-2.88665170236233</v>
       </c>
     </row>
     <row r="30">
@@ -3577,10 +3577,10 @@
         <v>9</v>
       </c>
       <c r="F30" t="n">
-        <v>2.39858906525573</v>
+        <v>2.38847910080787</v>
       </c>
       <c r="G30" t="n">
-        <v>-2.76589625487161</v>
+        <v>-2.77600621931948</v>
       </c>
     </row>
     <row r="31">
@@ -3600,10 +3600,10 @@
         <v>9</v>
       </c>
       <c r="F31" t="n">
-        <v>2.34022170521418</v>
+        <v>2.33351528384279</v>
       </c>
       <c r="G31" t="n">
-        <v>-2.44892290034655</v>
+        <v>-2.45562932171793</v>
       </c>
     </row>
     <row r="32">
@@ -3623,10 +3623,10 @@
         <v>9</v>
       </c>
       <c r="F32" t="n">
-        <v>1.53005464480874</v>
+        <v>1.52894066254095</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.64806804550907</v>
+        <v>-1.64918202777686</v>
       </c>
     </row>
     <row r="33">
@@ -3646,10 +3646,10 @@
         <v>9</v>
       </c>
       <c r="F33" t="n">
-        <v>1.87739463601533</v>
+        <v>1.87452180566182</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.93849836162433</v>
+        <v>-1.94137119197783</v>
       </c>
     </row>
     <row r="34">
@@ -3669,10 +3669,10 @@
         <v>9</v>
       </c>
       <c r="F34" t="n">
-        <v>2.20370868046224</v>
+        <v>2.1954484605087</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.43311790758386</v>
+        <v>-2.4413781275374</v>
       </c>
     </row>
     <row r="35">
@@ -3692,10 +3692,10 @@
         <v>9</v>
       </c>
       <c r="F35" t="n">
-        <v>1.70573661139699</v>
+        <v>1.70071258907363</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.23597904069029</v>
+        <v>-3.24100306301364</v>
       </c>
     </row>
     <row r="36">
@@ -3715,10 +3715,10 @@
         <v>9</v>
       </c>
       <c r="F36" t="n">
-        <v>1.39799038881608</v>
+        <v>1.39130434782609</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.24006931267646</v>
+        <v>-2.24675535366645</v>
       </c>
     </row>
     <row r="37">
@@ -3761,10 +3761,10 @@
         <v>9</v>
       </c>
       <c r="F38" t="n">
-        <v>1.43292682926829</v>
+        <v>1.42337976983646</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.1042782524014</v>
+        <v>-3.11382531183323</v>
       </c>
     </row>
     <row r="39">
@@ -3784,10 +3784,10 @@
         <v>9</v>
       </c>
       <c r="F39" t="n">
-        <v>1.63563160543533</v>
+        <v>1.63645518630413</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.11150069127637</v>
+        <v>-2.11067711040757</v>
       </c>
     </row>
     <row r="40">
@@ -3807,10 +3807,10 @@
         <v>9</v>
       </c>
       <c r="F40" t="n">
-        <v>1.18764845605701</v>
+        <v>1.18563685636856</v>
       </c>
       <c r="G40" t="n">
-        <v>-1.98208569527224</v>
+        <v>-1.98409729496068</v>
       </c>
     </row>
     <row r="41">
@@ -3830,10 +3830,10 @@
         <v>9</v>
       </c>
       <c r="F41" t="n">
-        <v>1.78433889602054</v>
+        <v>1.77794832437964</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.64621288435456</v>
+        <v>-2.65260345599547</v>
       </c>
     </row>
     <row r="42">
@@ -3853,10 +3853,10 @@
         <v>9</v>
       </c>
       <c r="F42" t="n">
-        <v>1.65242165242165</v>
+        <v>1.64679159568427</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.65578050167942</v>
+        <v>-2.66141055841681</v>
       </c>
     </row>
     <row r="43">
@@ -3899,10 +3899,10 @@
         <v>9</v>
       </c>
       <c r="F44" t="n">
-        <v>1.79920834832674</v>
+        <v>1.79597701149425</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.06589206849782</v>
+        <v>-2.0691234053303</v>
       </c>
     </row>
     <row r="45">
@@ -3922,10 +3922,10 @@
         <v>9</v>
       </c>
       <c r="F45" t="n">
-        <v>1.85253797702853</v>
+        <v>1.85459940652819</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.61531527397038</v>
+        <v>-2.61325384447072</v>
       </c>
     </row>
     <row r="46">
@@ -3945,10 +3945,10 @@
         <v>9</v>
       </c>
       <c r="F46" t="n">
-        <v>2.99694189602446</v>
+        <v>2.99511002444988</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.50881994776555</v>
+        <v>-2.51065181934014</v>
       </c>
     </row>
     <row r="47">
@@ -3968,10 +3968,10 @@
         <v>9</v>
       </c>
       <c r="F47" t="n">
-        <v>2.07783262541614</v>
+        <v>2.08573404010141</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.94193495575075</v>
+        <v>-2.93403354106548</v>
       </c>
     </row>
     <row r="48">
@@ -3991,10 +3991,10 @@
         <v>9</v>
       </c>
       <c r="F48" t="n">
-        <v>2.10242587601078</v>
+        <v>2.09452201933405</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.67868011477263</v>
+        <v>-2.68658397144936</v>
       </c>
     </row>
     <row r="49">
@@ -4014,10 +4014,10 @@
         <v>9</v>
       </c>
       <c r="F49" t="n">
-        <v>1.92</v>
+        <v>1.92513368983957</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.57750138811771</v>
+        <v>-2.57236769827814</v>
       </c>
     </row>
     <row r="50">
@@ -4083,10 +4083,10 @@
         <v>9</v>
       </c>
       <c r="F52" t="n">
-        <v>1.73885551691432</v>
+        <v>1.73995571021828</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.84204116924552</v>
+        <v>-2.84094097594156</v>
       </c>
     </row>
     <row r="53">
@@ -4106,10 +4106,10 @@
         <v>9</v>
       </c>
       <c r="F53" t="n">
-        <v>2.6431718061674</v>
+        <v>2.62449528936743</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.0190085437653</v>
+        <v>-4.03768506056528</v>
       </c>
     </row>
     <row r="54">
@@ -4129,10 +4129,10 @@
         <v>9</v>
       </c>
       <c r="F54" t="n">
-        <v>2.64164059784498</v>
+        <v>2.63203463203463</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.79132496551176</v>
+        <v>-2.8009309313221</v>
       </c>
     </row>
     <row r="55">
@@ -4152,10 +4152,10 @@
         <v>9</v>
       </c>
       <c r="F55" t="n">
-        <v>2.11301044634378</v>
+        <v>2.10451643414519</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.84946837234419</v>
+        <v>-2.85796238454278</v>
       </c>
     </row>
     <row r="56">
@@ -4175,10 +4175,10 @@
         <v>9</v>
       </c>
       <c r="F56" t="n">
-        <v>2.18271431086076</v>
+        <v>2.18156228008445</v>
       </c>
       <c r="G56" t="n">
-        <v>-2.04189403274071</v>
+        <v>-2.04304606351703</v>
       </c>
     </row>
     <row r="57">
@@ -4198,10 +4198,10 @@
         <v>9</v>
       </c>
       <c r="F57" t="n">
-        <v>2.16332099006042</v>
+        <v>2.15533980582524</v>
       </c>
       <c r="G57" t="n">
-        <v>-2.95042976492247</v>
+        <v>-2.95841094915764</v>
       </c>
     </row>
     <row r="58">
@@ -4221,10 +4221,10 @@
         <v>9</v>
       </c>
       <c r="F58" t="n">
-        <v>2.51432208784214</v>
+        <v>2.50555026958452</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.8678435172534</v>
+        <v>-2.87661533551102</v>
       </c>
     </row>
     <row r="59">
@@ -4244,10 +4244,10 @@
         <v>9</v>
       </c>
       <c r="F59" t="n">
-        <v>1.46579804560261</v>
+        <v>1.46182999458581</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.02305272626703</v>
+        <v>-4.02702077728383</v>
       </c>
     </row>
     <row r="60">
@@ -4290,10 +4290,10 @@
         <v>9</v>
       </c>
       <c r="F61" t="n">
-        <v>2.55259467040673</v>
+        <v>2.55116344266891</v>
       </c>
       <c r="G61" t="n">
-        <v>-1.63332541657343</v>
+        <v>-1.63475664431125</v>
       </c>
     </row>
     <row r="62">
@@ -4313,10 +4313,10 @@
         <v>9</v>
       </c>
       <c r="F62" t="n">
-        <v>1.98285101822079</v>
+        <v>1.96808510638298</v>
       </c>
       <c r="G62" t="n">
-        <v>-3.89321735784758</v>
+        <v>-3.9079832696854</v>
       </c>
     </row>
     <row r="63">
@@ -4336,10 +4336,10 @@
         <v>9</v>
       </c>
       <c r="F63" t="n">
-        <v>2.34920634920635</v>
+        <v>2.34697113859816</v>
       </c>
       <c r="G63" t="n">
-        <v>-3.00335775335775</v>
+        <v>-3.00559296396594</v>
       </c>
     </row>
     <row r="64">
@@ -4359,10 +4359,10 @@
         <v>9</v>
       </c>
       <c r="F64" t="n">
-        <v>2.66328471781864</v>
+        <v>2.65654648956357</v>
       </c>
       <c r="G64" t="n">
-        <v>-2.60329525617356</v>
+        <v>-2.61003348442863</v>
       </c>
     </row>
     <row r="65">
@@ -4382,10 +4382,10 @@
         <v>9</v>
       </c>
       <c r="F65" t="n">
-        <v>2.39565324771549</v>
+        <v>2.39742956005932</v>
       </c>
       <c r="G65" t="n">
-        <v>-2.61848920535728</v>
+        <v>-2.61671289301345</v>
       </c>
     </row>
     <row r="66">
@@ -4405,10 +4405,10 @@
         <v>9</v>
       </c>
       <c r="F66" t="n">
-        <v>2.14680347277032</v>
+        <v>2.14173228346457</v>
       </c>
       <c r="G66" t="n">
-        <v>-2.2663569195106</v>
+        <v>-2.27142810881636</v>
       </c>
     </row>
     <row r="67">
@@ -4428,10 +4428,10 @@
         <v>9</v>
       </c>
       <c r="F67" t="n">
-        <v>1.46884624496565</v>
+        <v>1.4605418138987</v>
       </c>
       <c r="G67" t="n">
-        <v>-1.91021879568476</v>
+        <v>-1.9185232267517</v>
       </c>
     </row>
     <row r="68">
@@ -4451,10 +4451,10 @@
         <v>9</v>
       </c>
       <c r="F68" t="n">
-        <v>1.33101851851852</v>
+        <v>1.32564841498559</v>
       </c>
       <c r="G68" t="n">
-        <v>-1.57442258026648</v>
+        <v>-1.57979268379941</v>
       </c>
     </row>
     <row r="69">
@@ -4474,10 +4474,10 @@
         <v>9</v>
       </c>
       <c r="F69" t="n">
-        <v>2.50186150409531</v>
+        <v>2.49073387694589</v>
       </c>
       <c r="G69" t="n">
-        <v>-2.40629868861773</v>
+        <v>-2.41742631576715</v>
       </c>
     </row>
     <row r="70">
@@ -4497,10 +4497,10 @@
         <v>9</v>
       </c>
       <c r="F70" t="n">
-        <v>1.68195718654434</v>
+        <v>1.67682926829268</v>
       </c>
       <c r="G70" t="n">
-        <v>-3.05448284401333</v>
+        <v>-3.05961076226499</v>
       </c>
     </row>
     <row r="71">
@@ -4520,10 +4520,10 @@
         <v>9</v>
       </c>
       <c r="F71" t="n">
-        <v>1.95777351247601</v>
+        <v>1.95627157652474</v>
       </c>
       <c r="G71" t="n">
-        <v>-2.71848548032975</v>
+        <v>-2.71998741628101</v>
       </c>
     </row>
     <row r="72">
@@ -4543,10 +4543,10 @@
         <v>9</v>
       </c>
       <c r="F72" t="n">
-        <v>2.24780701754386</v>
+        <v>2.25027442371021</v>
       </c>
       <c r="G72" t="n">
-        <v>-2.09266648865682</v>
+        <v>-2.09019908249047</v>
       </c>
     </row>
     <row r="73">
@@ -4566,10 +4566,10 @@
         <v>9</v>
       </c>
       <c r="F73" t="n">
-        <v>1.72365860439255</v>
+        <v>1.71745152354571</v>
       </c>
       <c r="G73" t="n">
-        <v>-1.7148983290911</v>
+        <v>-1.72110540993795</v>
       </c>
     </row>
     <row r="74">
@@ -4589,10 +4589,10 @@
         <v>9</v>
       </c>
       <c r="F74" t="n">
-        <v>2.17633928571429</v>
+        <v>2.16787103946637</v>
       </c>
       <c r="G74" t="n">
-        <v>-2.374419174029</v>
+        <v>-2.38288742027692</v>
       </c>
     </row>
     <row r="75">
@@ -4612,10 +4612,10 @@
         <v>9</v>
       </c>
       <c r="F75" t="n">
-        <v>1.99539524174981</v>
+        <v>1.98473282442748</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.53150232641526</v>
+        <v>-3.54216474373759</v>
       </c>
     </row>
     <row r="76">
@@ -4635,10 +4635,10 @@
         <v>9</v>
       </c>
       <c r="F76" t="n">
-        <v>0.960994912379876</v>
+        <v>0.959367945823928</v>
       </c>
       <c r="G76" t="n">
-        <v>-2.76951733706333</v>
+        <v>-2.77114430361928</v>
       </c>
     </row>
     <row r="77">
@@ -4658,10 +4658,10 @@
         <v>9</v>
       </c>
       <c r="F77" t="n">
-        <v>2.5191548641746</v>
+        <v>2.51215559157212</v>
       </c>
       <c r="G77" t="n">
-        <v>-2.79949000670908</v>
+        <v>-2.80648927931155</v>
       </c>
     </row>
     <row r="78">
@@ -4681,10 +4681,10 @@
         <v>9</v>
       </c>
       <c r="F78" t="n">
-        <v>2.11267605633803</v>
+        <v>2.11640211640212</v>
       </c>
       <c r="G78" t="n">
-        <v>0.606084719238216</v>
+        <v>0.609810779302305</v>
       </c>
     </row>
     <row r="79">
@@ -4704,10 +4704,10 @@
         <v>9</v>
       </c>
       <c r="F79" t="n">
-        <v>1.71062009978617</v>
+        <v>1.71122994652406</v>
       </c>
       <c r="G79" t="n">
-        <v>-1.77215129702746</v>
+        <v>-1.77154145028957</v>
       </c>
     </row>
     <row r="80">
@@ -4727,10 +4727,10 @@
         <v>9</v>
       </c>
       <c r="F80" t="n">
-        <v>2.31884057971015</v>
+        <v>2.30769230769231</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.71571025938166</v>
+        <v>-2.7268585313995</v>
       </c>
     </row>
     <row r="81">
@@ -4750,10 +4750,10 @@
         <v>9</v>
       </c>
       <c r="F81" t="n">
-        <v>2.12221002561288</v>
+        <v>2.10373594486761</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.54157063816778</v>
+        <v>-3.56004471891305</v>
       </c>
     </row>
     <row r="82">
@@ -4773,10 +4773,10 @@
         <v>9</v>
       </c>
       <c r="F82" t="n">
-        <v>2.55536626916525</v>
+        <v>2.53164556962025</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.59444646491715</v>
+        <v>-2.61816716446214</v>
       </c>
     </row>
     <row r="83">
@@ -4796,10 +4796,10 @@
         <v>9</v>
       </c>
       <c r="F83" t="n">
-        <v>3.2015065913371</v>
+        <v>3.21285140562249</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.5489807380976</v>
+        <v>-2.53763592381221</v>
       </c>
     </row>
     <row r="84">
@@ -4819,10 +4819,10 @@
         <v>9</v>
       </c>
       <c r="F84" t="n">
-        <v>3.08374930671104</v>
+        <v>3.07352128247651</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.97752710076601</v>
+        <v>-2.98775512500054</v>
       </c>
     </row>
     <row r="85">
@@ -4842,10 +4842,10 @@
         <v>9</v>
       </c>
       <c r="F85" t="n">
-        <v>2.1978021978022</v>
+        <v>2.19160926737633</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.68252108475919</v>
+        <v>-2.68871401518506</v>
       </c>
     </row>
     <row r="86">
@@ -4865,10 +4865,10 @@
         <v>9</v>
       </c>
       <c r="F86" t="n">
-        <v>2</v>
+        <v>1.99312714776632</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.96905393457118</v>
+        <v>-2.97592678680485</v>
       </c>
     </row>
     <row r="87">
@@ -4888,10 +4888,10 @@
         <v>9</v>
       </c>
       <c r="F87" t="n">
-        <v>2.31894398858366</v>
+        <v>2.3156394727467</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.70273231199437</v>
+        <v>-2.70603682783133</v>
       </c>
     </row>
     <row r="88">
@@ -4911,10 +4911,10 @@
         <v>9</v>
       </c>
       <c r="F88" t="n">
-        <v>5.63241106719368</v>
+        <v>5.6047197640118</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.58327520731613</v>
+        <v>-3.610966510498</v>
       </c>
     </row>
     <row r="89">
@@ -4934,10 +4934,10 @@
         <v>9</v>
       </c>
       <c r="F89" t="n">
-        <v>2.92397660818713</v>
+        <v>2.93586269196025</v>
       </c>
       <c r="G89" t="n">
-        <v>-3.06618879190227</v>
+        <v>-3.05430270812915</v>
       </c>
     </row>
     <row r="90">
@@ -4957,10 +4957,10 @@
         <v>9</v>
       </c>
       <c r="F90" t="n">
-        <v>6.48688952404623</v>
+        <v>6.51197604790419</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.780808200083031</v>
+        <v>-0.755721676225069</v>
       </c>
     </row>
     <row r="91">
@@ -4980,10 +4980,10 @@
         <v>9</v>
       </c>
       <c r="F91" t="n">
-        <v>1.7616191904048</v>
+        <v>1.76558978211871</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.78258812666837</v>
+        <v>-1.77861753495446</v>
       </c>
     </row>
     <row r="92">
@@ -5003,10 +5003,10 @@
         <v>9</v>
       </c>
       <c r="F92" t="n">
-        <v>1.98161065313887</v>
+        <v>1.97941409342835</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.79938872995798</v>
+        <v>-2.80158528966851</v>
       </c>
     </row>
     <row r="93">
@@ -5026,10 +5026,10 @@
         <v>9</v>
       </c>
       <c r="F93" t="n">
-        <v>0.72463768115942</v>
+        <v>0.725689404934688</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.89721105833638</v>
+        <v>-3.89615933456111</v>
       </c>
     </row>
     <row r="94">
@@ -5049,10 +5049,10 @@
         <v>9</v>
       </c>
       <c r="F94" t="n">
-        <v>1.36986301369863</v>
+        <v>1.36724960254372</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.75619286674321</v>
+        <v>-2.75880627789812</v>
       </c>
     </row>
     <row r="95">
@@ -5072,10 +5072,10 @@
         <v>9</v>
       </c>
       <c r="F95" t="n">
-        <v>2.50990752972259</v>
+        <v>2.51655629139073</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.62445939534201</v>
+        <v>-1.61781063367387</v>
       </c>
     </row>
     <row r="96">
@@ -5095,10 +5095,10 @@
         <v>9</v>
       </c>
       <c r="F96" t="n">
-        <v>1.19122257053292</v>
+        <v>1.18675827607745</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.42610823275614</v>
+        <v>-3.43057252721161</v>
       </c>
     </row>
     <row r="97">
@@ -5118,10 +5118,10 @@
         <v>9</v>
       </c>
       <c r="F97" t="n">
-        <v>2.13793103448276</v>
+        <v>2.13645761543763</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.83325052171321</v>
+        <v>-2.83472394075834</v>
       </c>
     </row>
     <row r="98">
@@ -5141,10 +5141,10 @@
         <v>9</v>
       </c>
       <c r="F98" t="n">
-        <v>2.08210277613703</v>
+        <v>2.07688908528502</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.18347904762717</v>
+        <v>-3.18869273847918</v>
       </c>
     </row>
     <row r="99">
@@ -5164,10 +5164,10 @@
         <v>9</v>
       </c>
       <c r="F99" t="n">
-        <v>1.40136543298599</v>
+        <v>1.39784946236559</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.7865442538312</v>
+        <v>-2.7900602244516</v>
       </c>
     </row>
     <row r="100">
@@ -5187,10 +5187,10 @@
         <v>9</v>
       </c>
       <c r="F100" t="n">
-        <v>1.92962542565267</v>
+        <v>1.92090395480226</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.71371543213514</v>
+        <v>-3.72243690298555</v>
       </c>
     </row>
     <row r="101">
@@ -5210,10 +5210,10 @@
         <v>9</v>
       </c>
       <c r="F101" t="n">
-        <v>1.85058259081563</v>
+        <v>1.82186234817814</v>
       </c>
       <c r="G101" t="n">
-        <v>-1.93064630857668</v>
+        <v>-1.95936655121416</v>
       </c>
     </row>
     <row r="102">
@@ -5233,10 +5233,10 @@
         <v>9</v>
       </c>
       <c r="F102" t="n">
-        <v>1.98347107438017</v>
+        <v>1.98565912851627</v>
       </c>
       <c r="G102" t="n">
-        <v>-2.46821187893145</v>
+        <v>-2.46602382479535</v>
       </c>
     </row>
     <row r="103">
@@ -5256,10 +5256,10 @@
         <v>9</v>
       </c>
       <c r="F103" t="n">
-        <v>1.23111359820929</v>
+        <v>1.22699386503067</v>
       </c>
       <c r="G103" t="n">
-        <v>-2.08506707646195</v>
+        <v>-2.08918680964057</v>
       </c>
     </row>
     <row r="104">
@@ -5279,10 +5279,10 @@
         <v>9</v>
       </c>
       <c r="F104" t="n">
-        <v>1.77201798466014</v>
+        <v>1.77014531043593</v>
       </c>
       <c r="G104" t="n">
-        <v>-2.84296091829344</v>
+        <v>-2.84483359251765</v>
       </c>
     </row>
     <row r="105">
@@ -5302,10 +5302,10 @@
         <v>9</v>
       </c>
       <c r="F105" t="n">
-        <v>2.30168516235101</v>
+        <v>2.29979466119096</v>
       </c>
       <c r="G105" t="n">
-        <v>-1.74362228101469</v>
+        <v>-1.74551278217473</v>
       </c>
     </row>
     <row r="106">
@@ -5325,10 +5325,10 @@
         <v>9</v>
       </c>
       <c r="F106" t="n">
-        <v>1.44417048256428</v>
+        <v>1.43859649122807</v>
       </c>
       <c r="G106" t="n">
-        <v>-2.88483384644005</v>
+        <v>-2.89040783777626</v>
       </c>
     </row>
     <row r="107">
@@ -5348,10 +5348,10 @@
         <v>9</v>
       </c>
       <c r="F107" t="n">
-        <v>2.16216216216216</v>
+        <v>2.17785843920145</v>
       </c>
       <c r="G107" t="n">
-        <v>-2.16396096595764</v>
+        <v>-2.14826468891835</v>
       </c>
     </row>
     <row r="108">
@@ -5371,10 +5371,10 @@
         <v>9</v>
       </c>
       <c r="F108" t="n">
-        <v>1.31904369332234</v>
+        <v>1.31255127153404</v>
       </c>
       <c r="G108" t="n">
-        <v>-1.98092925771904</v>
+        <v>-1.98742167950734</v>
       </c>
     </row>
     <row r="109">
@@ -5394,10 +5394,10 @@
         <v>9</v>
       </c>
       <c r="F109" t="n">
-        <v>1.0827718960539</v>
+        <v>1.08329321136254</v>
       </c>
       <c r="G109" t="n">
-        <v>-1.69637222593331</v>
+        <v>-1.69585091062467</v>
       </c>
     </row>
     <row r="110">
@@ -5417,10 +5417,10 @@
         <v>9</v>
       </c>
       <c r="F110" t="n">
-        <v>0.943396226415094</v>
+        <v>0.94142259414226</v>
       </c>
       <c r="G110" t="n">
-        <v>-1.30929721139098</v>
+        <v>-1.31127084366381</v>
       </c>
     </row>
     <row r="111">
@@ -5440,10 +5440,10 @@
         <v>9</v>
       </c>
       <c r="F111" t="n">
-        <v>1.86291463606351</v>
+        <v>1.85562167240839</v>
       </c>
       <c r="G111" t="n">
-        <v>-3.09738722699757</v>
+        <v>-3.10468019065269</v>
       </c>
     </row>
     <row r="112">
@@ -5463,10 +5463,10 @@
         <v>9</v>
       </c>
       <c r="F112" t="n">
-        <v>1.79704016913319</v>
+        <v>1.80851063829787</v>
       </c>
       <c r="G112" t="n">
-        <v>-2.16129316420014</v>
+        <v>-2.14982269503546</v>
       </c>
     </row>
     <row r="113">
@@ -5486,10 +5486,10 @@
         <v>9</v>
       </c>
       <c r="F113" t="n">
-        <v>1.68869309838473</v>
+        <v>1.68498168498168</v>
       </c>
       <c r="G113" t="n">
-        <v>-2.2702511831402</v>
+        <v>-2.27396259654324</v>
       </c>
     </row>
     <row r="114">
@@ -5509,10 +5509,10 @@
         <v>9</v>
       </c>
       <c r="F114" t="n">
-        <v>0.883977900552486</v>
+        <v>0.880572372041827</v>
       </c>
       <c r="G114" t="n">
-        <v>-3.37496588138959</v>
+        <v>-3.37837140990025</v>
       </c>
     </row>
     <row r="115">
@@ -5532,10 +5532,10 @@
         <v>9</v>
       </c>
       <c r="F115" t="n">
-        <v>2.06819452207937</v>
+        <v>2.06935123042506</v>
       </c>
       <c r="G115" t="n">
-        <v>-3.503652985252</v>
+        <v>-3.50249627690632</v>
       </c>
     </row>
     <row r="116">
@@ -5555,10 +5555,10 @@
         <v>9</v>
       </c>
       <c r="F116" t="n">
-        <v>2.10696920583468</v>
+        <v>2.10355987055016</v>
       </c>
       <c r="G116" t="n">
-        <v>-2.32666150516829</v>
+        <v>-2.33007084045281</v>
       </c>
     </row>
     <row r="117">
@@ -5578,10 +5578,10 @@
         <v>9</v>
       </c>
       <c r="F117" t="n">
-        <v>1.06263982102908</v>
+        <v>1.05496946141033</v>
       </c>
       <c r="G117" t="n">
-        <v>-2.72210293473674</v>
+        <v>-2.72977329435549</v>
       </c>
     </row>
     <row r="118">
@@ -5601,10 +5601,10 @@
         <v>9</v>
       </c>
       <c r="F118" t="n">
-        <v>0.893796004206099</v>
+        <v>0.888656560376372</v>
       </c>
       <c r="G118" t="n">
-        <v>-3.30527086982189</v>
+        <v>-3.31041031365162</v>
       </c>
     </row>
     <row r="119">
@@ -5624,10 +5624,10 @@
         <v>9</v>
       </c>
       <c r="F119" t="n">
-        <v>1.69204737732657</v>
+        <v>1.68747890651367</v>
       </c>
       <c r="G119" t="n">
-        <v>-2.55356665776115</v>
+        <v>-2.55813512857405</v>
       </c>
     </row>
     <row r="120">
@@ -5647,10 +5647,10 @@
         <v>9</v>
       </c>
       <c r="F120" t="n">
-        <v>2.2583559168925</v>
+        <v>2.25937641211026</v>
       </c>
       <c r="G120" t="n">
-        <v>-2.15969633963956</v>
+        <v>-2.15867584442181</v>
       </c>
     </row>
     <row r="121">
@@ -5670,10 +5670,10 @@
         <v>9</v>
       </c>
       <c r="F121" t="n">
-        <v>1.27783862723622</v>
+        <v>1.28064398097329</v>
       </c>
       <c r="G121" t="n">
-        <v>-2.87467175403974</v>
+        <v>-2.87186640030266</v>
       </c>
     </row>
     <row r="122">
@@ -5693,10 +5693,10 @@
         <v>9</v>
       </c>
       <c r="F122" t="n">
-        <v>1.84049079754601</v>
+        <v>1.82421227197347</v>
       </c>
       <c r="G122" t="n">
-        <v>-3.41355077289279</v>
+        <v>-3.42982929846533</v>
       </c>
     </row>
     <row r="123">
@@ -5716,10 +5716,10 @@
         <v>9</v>
       </c>
       <c r="F123" t="n">
-        <v>1.80925303696045</v>
+        <v>1.80319422977846</v>
       </c>
       <c r="G123" t="n">
-        <v>-3.5647680270417</v>
+        <v>-3.5708268342237</v>
       </c>
     </row>
     <row r="124">
@@ -5739,10 +5739,10 @@
         <v>9</v>
       </c>
       <c r="F124" t="n">
-        <v>2.25806451612903</v>
+        <v>2.24755177396051</v>
       </c>
       <c r="G124" t="n">
-        <v>-3.09992505238685</v>
+        <v>-3.11043779455538</v>
       </c>
     </row>
     <row r="125">
@@ -5762,10 +5762,10 @@
         <v>9</v>
       </c>
       <c r="F125" t="n">
-        <v>2.03571428571429</v>
+        <v>2.02056008507621</v>
       </c>
       <c r="G125" t="n">
-        <v>-2.73628995606726</v>
+        <v>-2.75144415670533</v>
       </c>
     </row>
     <row r="126">
@@ -5785,10 +5785,10 @@
         <v>9</v>
       </c>
       <c r="F126" t="n">
-        <v>3.9532293986637</v>
+        <v>3.93133997785161</v>
       </c>
       <c r="G126" t="n">
-        <v>-4.19569015353625</v>
+        <v>-4.21757957434834</v>
       </c>
     </row>
     <row r="127">
@@ -5808,10 +5808,10 @@
         <v>9</v>
       </c>
       <c r="F127" t="n">
-        <v>1.59342502515934</v>
+        <v>1.58677133789878</v>
       </c>
       <c r="G127" t="n">
-        <v>-2.85926514181654</v>
+        <v>-2.8659188290771</v>
       </c>
     </row>
     <row r="128">
@@ -5831,10 +5831,10 @@
         <v>9</v>
       </c>
       <c r="F128" t="n">
-        <v>2.74960998439938</v>
+        <v>2.74105754276827</v>
       </c>
       <c r="G128" t="n">
-        <v>-3.62963309012267</v>
+        <v>-3.63818553175377</v>
       </c>
     </row>
     <row r="129">
@@ -5854,10 +5854,10 @@
         <v>9</v>
       </c>
       <c r="F129" t="n">
-        <v>2.95095594347465</v>
+        <v>2.95341098169717</v>
       </c>
       <c r="G129" t="n">
-        <v>-3.41420318550358</v>
+        <v>-3.41174814728105</v>
       </c>
     </row>
     <row r="130">
@@ -5877,10 +5877,10 @@
         <v>9</v>
       </c>
       <c r="F130" t="n">
-        <v>2.08761122518823</v>
+        <v>2.08120095530536</v>
       </c>
       <c r="G130" t="n">
-        <v>-2.45630769373069</v>
+        <v>-2.46271796361356</v>
       </c>
     </row>
     <row r="131">
@@ -5900,10 +5900,10 @@
         <v>9</v>
       </c>
       <c r="F131" t="n">
-        <v>3.15291644771414</v>
+        <v>3.13889615485221</v>
       </c>
       <c r="G131" t="n">
-        <v>-4.0477308014768</v>
+        <v>-4.06175109433873</v>
       </c>
     </row>
     <row r="132">
@@ -5923,10 +5923,10 @@
         <v>9</v>
       </c>
       <c r="F132" t="n">
-        <v>2.79562982005141</v>
+        <v>2.7831094049904</v>
       </c>
       <c r="G132" t="n">
-        <v>-4.09534397483697</v>
+        <v>-4.10786438989798</v>
       </c>
     </row>
     <row r="133">
@@ -5946,10 +5946,10 @@
         <v>9</v>
       </c>
       <c r="F133" t="n">
-        <v>1.73319327731092</v>
+        <v>1.73137460650577</v>
       </c>
       <c r="G133" t="n">
-        <v>-3.57796552097234</v>
+        <v>-3.57978419177749</v>
       </c>
     </row>
     <row r="134">
@@ -5969,10 +5969,10 @@
         <v>9</v>
       </c>
       <c r="F134" t="n">
-        <v>2.13027447767308</v>
+        <v>2.11640211640212</v>
       </c>
       <c r="G134" t="n">
-        <v>-3.68417614224996</v>
+        <v>-3.69804850352093</v>
       </c>
     </row>
     <row r="135">
@@ -5992,10 +5992,10 @@
         <v>9</v>
       </c>
       <c r="F135" t="n">
-        <v>2.90519877675841</v>
+        <v>2.90668026517083</v>
       </c>
       <c r="G135" t="n">
-        <v>-4.03567525923131</v>
+        <v>-4.03419377081889</v>
       </c>
     </row>
     <row r="136">
@@ -6015,10 +6015,10 @@
         <v>9</v>
       </c>
       <c r="F136" t="n">
-        <v>4.01153014652895</v>
+        <v>3.99712781235041</v>
       </c>
       <c r="G136" t="n">
-        <v>-3.83951349673481</v>
+        <v>-3.85391583091335</v>
       </c>
     </row>
     <row r="137">
@@ -6038,10 +6038,10 @@
         <v>9</v>
       </c>
       <c r="F137" t="n">
-        <v>3.2996632996633</v>
+        <v>3.28344873799419</v>
       </c>
       <c r="G137" t="n">
-        <v>-3.5798331032144</v>
+        <v>-3.5960476648835</v>
       </c>
     </row>
     <row r="138">
@@ -6061,10 +6061,10 @@
         <v>9</v>
       </c>
       <c r="F138" t="n">
-        <v>2.54777070063694</v>
+        <v>2.54372019077901</v>
       </c>
       <c r="G138" t="n">
-        <v>-3.71604654328347</v>
+        <v>-3.7200970531414</v>
       </c>
     </row>
     <row r="139">
@@ -6084,10 +6084,10 @@
         <v>9</v>
       </c>
       <c r="F139" t="n">
-        <v>2.21767314909587</v>
+        <v>2.21994535519126</v>
       </c>
       <c r="G139" t="n">
-        <v>-2.3707209129824</v>
+        <v>-2.36844870688702</v>
       </c>
     </row>
     <row r="140">
@@ -6107,10 +6107,10 @@
         <v>9</v>
       </c>
       <c r="F140" t="n">
-        <v>2.49346948468297</v>
+        <v>2.49910746162085</v>
       </c>
       <c r="G140" t="n">
-        <v>-2.33508194988666</v>
+        <v>-2.32944397294878</v>
       </c>
     </row>
     <row r="141">
@@ -6130,10 +6130,10 @@
         <v>9</v>
       </c>
       <c r="F141" t="n">
-        <v>9.88446016916358</v>
+        <v>9.86945602075456</v>
       </c>
       <c r="G141" t="n">
-        <v>-4.5190026752417</v>
+        <v>-4.53400682365072</v>
       </c>
     </row>
     <row r="142">
@@ -6153,10 +6153,10 @@
         <v>9</v>
       </c>
       <c r="F142" t="n">
-        <v>1.23294858342078</v>
+        <v>1.23133350799057</v>
       </c>
       <c r="G142" t="n">
-        <v>-1.57735586622794</v>
+        <v>-1.57897094165814</v>
       </c>
     </row>
     <row r="143">
@@ -6176,10 +6176,10 @@
         <v>9</v>
       </c>
       <c r="F143" t="n">
-        <v>1.87787261982928</v>
+        <v>1.89028420356907</v>
       </c>
       <c r="G143" t="n">
-        <v>-2.48017940009324</v>
+        <v>-2.46776781635346</v>
       </c>
     </row>
     <row r="144">
@@ -6199,10 +6199,10 @@
         <v>9</v>
       </c>
       <c r="F144" t="n">
-        <v>1.62381596752368</v>
+        <v>1.63154316791298</v>
       </c>
       <c r="G144" t="n">
-        <v>-2.09287407455206</v>
+        <v>-2.08514687416275</v>
       </c>
     </row>
     <row r="145">
@@ -6222,10 +6222,10 @@
         <v>9</v>
       </c>
       <c r="F145" t="n">
-        <v>2.40086129553203</v>
+        <v>2.40051670314687</v>
       </c>
       <c r="G145" t="n">
-        <v>-3.19844785818127</v>
+        <v>-3.19879245056643</v>
       </c>
     </row>
     <row r="146">
@@ -6245,10 +6245,10 @@
         <v>9</v>
       </c>
       <c r="F146" t="n">
-        <v>1.26682501979414</v>
+        <v>1.26507214864598</v>
       </c>
       <c r="G146" t="n">
-        <v>-2.11452752122227</v>
+        <v>-2.11628039237043</v>
       </c>
     </row>
     <row r="147">
@@ -6268,10 +6268,10 @@
         <v>9</v>
       </c>
       <c r="F147" t="n">
-        <v>1.23284484763899</v>
+        <v>1.23485554520037</v>
       </c>
       <c r="G147" t="n">
-        <v>-1.93526363961844</v>
+        <v>-1.93325294205705</v>
       </c>
     </row>
     <row r="148">
@@ -6291,10 +6291,10 @@
         <v>9</v>
       </c>
       <c r="F148" t="n">
-        <v>0.941730429664508</v>
+        <v>0.938967136150235</v>
       </c>
       <c r="G148" t="n">
-        <v>-1.37006565806519</v>
+        <v>-1.37282895157946</v>
       </c>
     </row>
     <row r="149">
@@ -6314,10 +6314,10 @@
         <v>9</v>
       </c>
       <c r="F149" t="n">
-        <v>1.19961612284069</v>
+        <v>1.19274809160305</v>
       </c>
       <c r="G149" t="n">
-        <v>-2.06609392169172</v>
+        <v>-2.07296195292936</v>
       </c>
     </row>
     <row r="150">
@@ -6337,10 +6337,10 @@
         <v>9</v>
       </c>
       <c r="F150" t="n">
-        <v>1.0572366022603</v>
+        <v>1.05377906976744</v>
       </c>
       <c r="G150" t="n">
-        <v>-1.46377180110105</v>
+        <v>-1.4672293335939</v>
       </c>
     </row>
     <row r="151">
@@ -6360,10 +6360,10 @@
         <v>9</v>
       </c>
       <c r="F151" t="n">
-        <v>1.08621860149355</v>
+        <v>1.08474576271186</v>
       </c>
       <c r="G151" t="n">
-        <v>-2.12302401724843</v>
+        <v>-2.12449685603011</v>
       </c>
     </row>
     <row r="152">
@@ -6406,10 +6406,10 @@
         <v>9</v>
       </c>
       <c r="F153" t="n">
-        <v>1.16982654296087</v>
+        <v>1.16794200563834</v>
       </c>
       <c r="G153" t="n">
-        <v>-1.96918690995393</v>
+        <v>-1.97107144727646</v>
       </c>
     </row>
     <row r="154">
@@ -6429,10 +6429,10 @@
         <v>9</v>
       </c>
       <c r="F154" t="n">
-        <v>2.21596904678157</v>
+        <v>2.21363316936051</v>
       </c>
       <c r="G154" t="n">
-        <v>-2.29452046370794</v>
+        <v>-2.296856341129</v>
       </c>
     </row>
     <row r="155">
@@ -6452,10 +6452,10 @@
         <v>9</v>
       </c>
       <c r="F155" t="n">
-        <v>0.844205679201842</v>
+        <v>0.843234955921809</v>
       </c>
       <c r="G155" t="n">
-        <v>-2.51301800997205</v>
+        <v>-2.51398873325209</v>
       </c>
     </row>
     <row r="156">
@@ -6475,10 +6475,10 @@
         <v>9</v>
       </c>
       <c r="F156" t="n">
-        <v>1.484375</v>
+        <v>1.4809041309431</v>
       </c>
       <c r="G156" t="n">
-        <v>-1.60589336541068</v>
+        <v>-1.60936423446758</v>
       </c>
     </row>
     <row r="157">
@@ -6498,10 +6498,10 @@
         <v>9</v>
       </c>
       <c r="F157" t="n">
-        <v>1.09930377427629</v>
+        <v>1.09409190371991</v>
       </c>
       <c r="G157" t="n">
-        <v>-1.52269185573099</v>
+        <v>-1.52790372628737</v>
       </c>
     </row>
     <row r="158">
@@ -6521,10 +6521,10 @@
         <v>9</v>
       </c>
       <c r="F158" t="n">
-        <v>0.887573964497041</v>
+        <v>0.88805166846071</v>
       </c>
       <c r="G158" t="n">
-        <v>-1.94108982860641</v>
+        <v>-1.94061212464274</v>
       </c>
     </row>
     <row r="159">
@@ -6544,10 +6544,10 @@
         <v>9</v>
       </c>
       <c r="F159" t="n">
-        <v>1.52996663982515</v>
+        <v>1.53067096328691</v>
       </c>
       <c r="G159" t="n">
-        <v>-2.06634713855202</v>
+        <v>-2.06564281509025</v>
       </c>
     </row>
     <row r="160">
@@ -6567,10 +6567,10 @@
         <v>9</v>
       </c>
       <c r="F160" t="n">
-        <v>0.946317962835513</v>
+        <v>0.947948983109273</v>
       </c>
       <c r="G160" t="n">
-        <v>-2.34404838723233</v>
+        <v>-2.34241736695857</v>
       </c>
     </row>
     <row r="161">
@@ -6590,10 +6590,10 @@
         <v>9</v>
       </c>
       <c r="F161" t="n">
-        <v>1.66331770484483</v>
+        <v>1.65610759141936</v>
       </c>
       <c r="G161" t="n">
-        <v>-3.40198609981161</v>
+        <v>-3.40919621323708</v>
       </c>
     </row>
     <row r="162">
@@ -6613,10 +6613,10 @@
         <v>9</v>
       </c>
       <c r="F162" t="n">
-        <v>0.685785536159601</v>
+        <v>0.683654443753884</v>
       </c>
       <c r="G162" t="n">
-        <v>-2.3406149789724</v>
+        <v>-2.34274607137812</v>
       </c>
     </row>
     <row r="163">
@@ -6636,10 +6636,10 @@
         <v>9</v>
       </c>
       <c r="F163" t="n">
-        <v>1.02207686017989</v>
+        <v>1.02375102375102</v>
       </c>
       <c r="G163" t="n">
-        <v>-2.21334246719347</v>
+        <v>-2.21166830362233</v>
       </c>
     </row>
     <row r="164">
@@ -6659,10 +6659,10 @@
         <v>9</v>
       </c>
       <c r="F164" t="n">
-        <v>1.08695652173913</v>
+        <v>1.08636610537751</v>
       </c>
       <c r="G164" t="n">
-        <v>-2.0129286676983</v>
+        <v>-2.01351908405992</v>
       </c>
     </row>
     <row r="165">
@@ -6682,10 +6682,10 @@
         <v>9</v>
       </c>
       <c r="F165" t="n">
-        <v>1.0340370529944</v>
+        <v>1.02871838834119</v>
       </c>
       <c r="G165" t="n">
-        <v>-1.60578397608838</v>
+        <v>-1.61110264074158</v>
       </c>
     </row>
     <row r="166">
@@ -6705,10 +6705,10 @@
         <v>9</v>
       </c>
       <c r="F166" t="n">
-        <v>1.81677618863549</v>
+        <v>1.80007659900421</v>
       </c>
       <c r="G166" t="n">
-        <v>-1.78354743595998</v>
+        <v>-1.80024702559126</v>
       </c>
     </row>
     <row r="167">
@@ -6728,10 +6728,10 @@
         <v>9</v>
       </c>
       <c r="F167" t="n">
-        <v>2.29039714225678</v>
+        <v>2.27771392748929</v>
       </c>
       <c r="G167" t="n">
-        <v>-2.62328147660113</v>
+        <v>-2.63596469136861</v>
       </c>
     </row>
     <row r="168">
@@ -6751,10 +6751,10 @@
         <v>9</v>
       </c>
       <c r="F168" t="n">
-        <v>1.00463678516229</v>
+        <v>1.00115517905275</v>
       </c>
       <c r="G168" t="n">
-        <v>-2.78874497432117</v>
+        <v>-2.7922265804307</v>
       </c>
     </row>
     <row r="169">
@@ -6774,10 +6774,10 @@
         <v>9</v>
       </c>
       <c r="F169" t="n">
-        <v>2.12429378531073</v>
+        <v>2.11473565804274</v>
       </c>
       <c r="G169" t="n">
-        <v>-2.05041663939969</v>
+        <v>-2.05997476666768</v>
       </c>
     </row>
     <row r="170">
@@ -6797,10 +6797,10 @@
         <v>9</v>
       </c>
       <c r="F170" t="n">
-        <v>1.47510755992624</v>
+        <v>1.47179067865904</v>
       </c>
       <c r="G170" t="n">
-        <v>-2.53827036649516</v>
+        <v>-2.54158724776237</v>
       </c>
     </row>
     <row r="171">
@@ -6820,10 +6820,10 @@
         <v>9</v>
       </c>
       <c r="F171" t="n">
-        <v>1.93621867881549</v>
+        <v>1.93017314788533</v>
       </c>
       <c r="G171" t="n">
-        <v>-2.7838047747172</v>
+        <v>-2.78985030564736</v>
       </c>
     </row>
     <row r="172">
@@ -6843,10 +6843,10 @@
         <v>9</v>
       </c>
       <c r="F172" t="n">
-        <v>1.38531322790242</v>
+        <v>1.3780487804878</v>
       </c>
       <c r="G172" t="n">
-        <v>-2.06955673640151</v>
+        <v>-2.07682118381612</v>
       </c>
     </row>
     <row r="173">
@@ -6866,10 +6866,10 @@
         <v>9</v>
       </c>
       <c r="F173" t="n">
-        <v>2.13903743315508</v>
+        <v>2.13032581453634</v>
       </c>
       <c r="G173" t="n">
-        <v>-2.08600634968205</v>
+        <v>-2.09471796830079</v>
       </c>
     </row>
     <row r="174">
@@ -6889,10 +6889,10 @@
         <v>9</v>
       </c>
       <c r="F174" t="n">
-        <v>1.92989365892084</v>
+        <v>1.92006269592477</v>
       </c>
       <c r="G174" t="n">
-        <v>-2.27143745588782</v>
+        <v>-2.28126841888389</v>
       </c>
     </row>
     <row r="175">
@@ -6912,10 +6912,10 @@
         <v>9</v>
       </c>
       <c r="F175" t="n">
-        <v>1.72910662824208</v>
+        <v>1.71062009978617</v>
       </c>
       <c r="G175" t="n">
-        <v>-3.69488114868688</v>
+        <v>-3.71336767714278</v>
       </c>
     </row>
     <row r="176">
@@ -6935,10 +6935,10 @@
         <v>9</v>
       </c>
       <c r="F176" t="n">
-        <v>1.92048517520216</v>
+        <v>1.91275167785235</v>
       </c>
       <c r="G176" t="n">
-        <v>-2.24030466964975</v>
+        <v>-2.24803816699955</v>
       </c>
     </row>
     <row r="177">
@@ -6958,10 +6958,10 @@
         <v>9</v>
       </c>
       <c r="F177" t="n">
-        <v>2.1952043228639</v>
+        <v>2.18892069371948</v>
       </c>
       <c r="G177" t="n">
-        <v>-2.48503862104464</v>
+        <v>-2.49132225018906</v>
       </c>
     </row>
     <row r="178">
@@ -6981,10 +6981,10 @@
         <v>9</v>
       </c>
       <c r="F178" t="n">
-        <v>1.84648805213613</v>
+        <v>1.84281842818428</v>
       </c>
       <c r="G178" t="n">
-        <v>-2.71383171530573</v>
+        <v>-2.71750133925758</v>
       </c>
     </row>
     <row r="179">
@@ -7004,10 +7004,10 @@
         <v>9</v>
       </c>
       <c r="F179" t="n">
-        <v>2.77580071174377</v>
+        <v>2.77382645803698</v>
       </c>
       <c r="G179" t="n">
-        <v>-2.69294928825623</v>
+        <v>-2.69492354196302</v>
       </c>
     </row>
     <row r="180">
@@ -7027,10 +7027,10 @@
         <v>9</v>
       </c>
       <c r="F180" t="n">
-        <v>1.98222829801777</v>
+        <v>1.97817189631651</v>
       </c>
       <c r="G180" t="n">
-        <v>-2.87992709045341</v>
+        <v>-2.88398349215467</v>
       </c>
     </row>
     <row r="181">
@@ -7050,10 +7050,10 @@
         <v>9</v>
       </c>
       <c r="F181" t="n">
-        <v>2.33784093513637</v>
+        <v>2.32346241457859</v>
       </c>
       <c r="G181" t="n">
-        <v>-2.97309869264393</v>
+        <v>-2.98747721320171</v>
       </c>
     </row>
     <row r="182">
@@ -7073,10 +7073,10 @@
         <v>9</v>
       </c>
       <c r="F182" t="n">
-        <v>1.6907361747094</v>
+        <v>1.68126094570928</v>
       </c>
       <c r="G182" t="n">
-        <v>-2.23824002476169</v>
+        <v>-2.24771525376182</v>
       </c>
     </row>
     <row r="183">
@@ -7096,10 +7096,10 @@
         <v>9</v>
       </c>
       <c r="F183" t="n">
-        <v>2.58644160087122</v>
+        <v>2.57731958762887</v>
       </c>
       <c r="G183" t="n">
-        <v>-2.17408089550033</v>
+        <v>-2.18320290874269</v>
       </c>
     </row>
     <row r="184">
@@ -7119,10 +7119,10 @@
         <v>9</v>
       </c>
       <c r="F184" t="n">
-        <v>1.67887667887668</v>
+        <v>1.67351285562148</v>
       </c>
       <c r="G184" t="n">
-        <v>-2.77240205210422</v>
+        <v>-2.77776587535942</v>
       </c>
     </row>
     <row r="185">
@@ -7142,10 +7142,10 @@
         <v>9</v>
       </c>
       <c r="F185" t="n">
-        <v>2.6357863962359</v>
+        <v>2.63362088639372</v>
       </c>
       <c r="G185" t="n">
-        <v>-2.81527106212083</v>
+        <v>-2.81743657196301</v>
       </c>
     </row>
     <row r="186">
@@ -7165,10 +7165,10 @@
         <v>9</v>
       </c>
       <c r="F186" t="n">
-        <v>2.57443082311734</v>
+        <v>2.57127864264474</v>
       </c>
       <c r="G186" t="n">
-        <v>-2.90127075114686</v>
+        <v>-2.90442293161946</v>
       </c>
     </row>
     <row r="187">
@@ -7188,10 +7188,10 @@
         <v>9</v>
       </c>
       <c r="F187" t="n">
-        <v>6.89609318901093</v>
+        <v>6.88126957167879</v>
       </c>
       <c r="G187" t="n">
-        <v>-3.90820391633994</v>
+        <v>-3.92302753367208</v>
       </c>
     </row>
     <row r="188">
@@ -7211,10 +7211,10 @@
         <v>9</v>
       </c>
       <c r="F188" t="n">
-        <v>3.17689530685921</v>
+        <v>3.17079029546</v>
       </c>
       <c r="G188" t="n">
-        <v>-2.74054683105537</v>
+        <v>-2.74665184245457</v>
       </c>
     </row>
     <row r="189">
@@ -7234,10 +7234,10 @@
         <v>9</v>
       </c>
       <c r="F189" t="n">
-        <v>2.66030013642565</v>
+        <v>2.6512576478586</v>
       </c>
       <c r="G189" t="n">
-        <v>-4.37348052067755</v>
+        <v>-4.38252300924459</v>
       </c>
     </row>
     <row r="190">
@@ -7257,10 +7257,10 @@
         <v>9</v>
       </c>
       <c r="F190" t="n">
-        <v>2.85875228841008</v>
+        <v>2.85674078243738</v>
       </c>
       <c r="G190" t="n">
-        <v>-2.81647554920383</v>
+        <v>-2.81848705517654</v>
       </c>
     </row>
     <row r="191">
@@ -7280,10 +7280,10 @@
         <v>9</v>
       </c>
       <c r="F191" t="n">
-        <v>1.44251166737378</v>
+        <v>1.44742443593018</v>
       </c>
       <c r="G191" t="n">
-        <v>-3.20769409394309</v>
+        <v>-3.20278132538669</v>
       </c>
     </row>
     <row r="192">
@@ -7303,10 +7303,10 @@
         <v>9</v>
       </c>
       <c r="F192" t="n">
-        <v>1.99943677837229</v>
+        <v>1.99326221224031</v>
       </c>
       <c r="G192" t="n">
-        <v>-3.00125776253617</v>
+        <v>-3.00743232866815</v>
       </c>
     </row>
     <row r="193">
@@ -7326,10 +7326,10 @@
         <v>9</v>
       </c>
       <c r="F193" t="n">
-        <v>2.05587770163416</v>
+        <v>2.05425335791414</v>
       </c>
       <c r="G193" t="n">
-        <v>-2.84250687366548</v>
+        <v>-2.84413121738549</v>
       </c>
     </row>
     <row r="194">
@@ -7349,10 +7349,10 @@
         <v>9</v>
       </c>
       <c r="F194" t="n">
-        <v>2.03551912568306</v>
+        <v>2.03218767048554</v>
       </c>
       <c r="G194" t="n">
-        <v>-1.93595339564263</v>
+        <v>-1.93928485084015</v>
       </c>
     </row>
     <row r="195">
@@ -7372,10 +7372,10 @@
         <v>9</v>
       </c>
       <c r="F195" t="n">
-        <v>2.02266532778654</v>
+        <v>2.00654617902377</v>
       </c>
       <c r="G195" t="n">
-        <v>-2.24166251131825</v>
+        <v>-2.25778166008103</v>
       </c>
     </row>
     <row r="196">
@@ -7395,10 +7395,10 @@
         <v>9</v>
       </c>
       <c r="F196" t="n">
-        <v>2.15850515463918</v>
+        <v>2.15019255455712</v>
       </c>
       <c r="G196" t="n">
-        <v>-2.28559277144846</v>
+        <v>-2.29390537153051</v>
       </c>
     </row>
     <row r="197">
@@ -7418,10 +7418,10 @@
         <v>9</v>
       </c>
       <c r="F197" t="n">
-        <v>3.19925660427453</v>
+        <v>3.18614489687996</v>
       </c>
       <c r="G197" t="n">
-        <v>-2.81969441667836</v>
+        <v>-2.83280612407293</v>
       </c>
     </row>
     <row r="198">
@@ -7441,10 +7441,10 @@
         <v>9</v>
       </c>
       <c r="F198" t="n">
-        <v>2.22112537018756</v>
+        <v>2.21638483007716</v>
       </c>
       <c r="G198" t="n">
-        <v>-3.68551165744026</v>
+        <v>-3.69025219755066</v>
       </c>
     </row>
     <row r="199">
@@ -7464,10 +7464,10 @@
         <v>9</v>
       </c>
       <c r="F199" t="n">
-        <v>1.83889891696751</v>
+        <v>1.83806946323861</v>
       </c>
       <c r="G199" t="n">
-        <v>-2.75214186752101</v>
+        <v>-2.75297132124991</v>
       </c>
     </row>
     <row r="200">
@@ -7487,10 +7487,10 @@
         <v>9</v>
       </c>
       <c r="F200" t="n">
-        <v>2.28592842420836</v>
+        <v>2.28378884312991</v>
       </c>
       <c r="G200" t="n">
-        <v>-2.19224283305228</v>
+        <v>-2.19438241413072</v>
       </c>
     </row>
     <row r="201">
@@ -7510,10 +7510,10 @@
         <v>9</v>
       </c>
       <c r="F201" t="n">
-        <v>2.20553730642891</v>
+        <v>2.1978021978022</v>
       </c>
       <c r="G201" t="n">
-        <v>-3.09497278450035</v>
+        <v>-3.10270789312705</v>
       </c>
     </row>
     <row r="202">
@@ -7533,10 +7533,10 @@
         <v>9</v>
       </c>
       <c r="F202" t="n">
-        <v>2.97390248836739</v>
+        <v>2.96490520371117</v>
       </c>
       <c r="G202" t="n">
-        <v>-2.26680439767771</v>
+        <v>-2.27580168233392</v>
       </c>
     </row>
     <row r="203">
@@ -7556,10 +7556,10 @@
         <v>9</v>
       </c>
       <c r="F203" t="n">
-        <v>1.35268888155724</v>
+        <v>1.34514435695538</v>
       </c>
       <c r="G203" t="n">
-        <v>-3.33107180220344</v>
+        <v>-3.3386163268053</v>
       </c>
     </row>
     <row r="204">
@@ -7579,10 +7579,10 @@
         <v>9</v>
       </c>
       <c r="F204" t="n">
-        <v>2.92981755227061</v>
+        <v>2.92942743009321</v>
       </c>
       <c r="G204" t="n">
-        <v>-2.63880989870978</v>
+        <v>-2.63920002088718</v>
       </c>
     </row>
     <row r="205">
@@ -7602,10 +7602,10 @@
         <v>9</v>
       </c>
       <c r="F205" t="n">
-        <v>1.98446937014668</v>
+        <v>1.97934595524957</v>
       </c>
       <c r="G205" t="n">
-        <v>-2.73407367621094</v>
+        <v>-2.73919709110805</v>
       </c>
     </row>
     <row r="206">
@@ -7625,10 +7625,10 @@
         <v>9</v>
       </c>
       <c r="F206" t="n">
-        <v>2.41545893719807</v>
+        <v>2.40715268225585</v>
       </c>
       <c r="G206" t="n">
-        <v>-1.36201359027446</v>
+        <v>-1.37031984521668</v>
       </c>
     </row>
     <row r="207">
@@ -7648,10 +7648,10 @@
         <v>9</v>
       </c>
       <c r="F207" t="n">
-        <v>1.22699386503067</v>
+        <v>1.22075279755849</v>
       </c>
       <c r="G207" t="n">
-        <v>-2.40641177488256</v>
+        <v>-2.41265284235474</v>
       </c>
     </row>
     <row r="208">
@@ -7671,10 +7671,10 @@
         <v>9</v>
       </c>
       <c r="F208" t="n">
-        <v>2.27586206896552</v>
+        <v>2.25563909774436</v>
       </c>
       <c r="G208" t="n">
-        <v>-3.20822730137978</v>
+        <v>-3.22845027260093</v>
       </c>
     </row>
     <row r="209">
@@ -7694,10 +7694,10 @@
         <v>9</v>
       </c>
       <c r="F209" t="n">
-        <v>1.84229918938836</v>
+        <v>1.83418928833456</v>
       </c>
       <c r="G209" t="n">
-        <v>-3.86800721729688</v>
+        <v>-3.87611711835068</v>
       </c>
     </row>
     <row r="210">
@@ -7717,10 +7717,10 @@
         <v>9</v>
       </c>
       <c r="F210" t="n">
-        <v>2.18923933209647</v>
+        <v>2.20725776281332</v>
       </c>
       <c r="G210" t="n">
-        <v>-1.97261037888618</v>
+        <v>-1.95459194816934</v>
       </c>
     </row>
     <row r="211">
@@ -7740,10 +7740,10 @@
         <v>9</v>
       </c>
       <c r="F211" t="n">
-        <v>2.42976461655277</v>
+        <v>2.44741873804971</v>
       </c>
       <c r="G211" t="n">
-        <v>-2.38366821926812</v>
+        <v>-2.36601409777118</v>
       </c>
     </row>
     <row r="212">
@@ -7763,10 +7763,10 @@
         <v>9</v>
       </c>
       <c r="F212" t="n">
-        <v>3.12335958005249</v>
+        <v>3.11436796650092</v>
       </c>
       <c r="G212" t="n">
-        <v>-1.89594543925253</v>
+        <v>-1.9049370528041</v>
       </c>
     </row>
     <row r="213">
@@ -7786,10 +7786,10 @@
         <v>9</v>
       </c>
       <c r="F213" t="n">
-        <v>2.22222222222222</v>
+        <v>2.21975582685905</v>
       </c>
       <c r="G213" t="n">
-        <v>-1.98131760078663</v>
+        <v>-1.9837839961498</v>
       </c>
     </row>
     <row r="214">
@@ -7809,10 +7809,10 @@
         <v>9</v>
       </c>
       <c r="F214" t="n">
-        <v>2.82869785082174</v>
+        <v>2.82111899133176</v>
       </c>
       <c r="G214" t="n">
-        <v>-2.52078099651118</v>
+        <v>-2.52835985600117</v>
       </c>
     </row>
     <row r="215">
@@ -7832,10 +7832,10 @@
         <v>9</v>
       </c>
       <c r="F215" t="n">
-        <v>1.00671140939597</v>
+        <v>1.0183299389002</v>
       </c>
       <c r="G215" t="n">
-        <v>-3.02609788657122</v>
+        <v>-3.01447935706699</v>
       </c>
     </row>
     <row r="216">
@@ -7855,10 +7855,10 @@
         <v>9</v>
       </c>
       <c r="F216" t="n">
-        <v>2.01941747572816</v>
+        <v>2.01316298877274</v>
       </c>
       <c r="G216" t="n">
-        <v>-2.20048186612241</v>
+        <v>-2.20673635307782</v>
       </c>
     </row>
     <row r="217">
@@ -7878,10 +7878,10 @@
         <v>9</v>
       </c>
       <c r="F217" t="n">
-        <v>2.29265003371544</v>
+        <v>2.29419703103914</v>
       </c>
       <c r="G217" t="n">
-        <v>-3.69303636836654</v>
+        <v>-3.69148937104284</v>
       </c>
     </row>
     <row r="218">
@@ -7901,10 +7901,10 @@
         <v>9</v>
       </c>
       <c r="F218" t="n">
-        <v>2.37226277372263</v>
+        <v>2.3780487804878</v>
       </c>
       <c r="G218" t="n">
-        <v>-2.29670010419547</v>
+        <v>-2.2909140974303</v>
       </c>
     </row>
     <row r="219">
@@ -7924,10 +7924,10 @@
         <v>9</v>
       </c>
       <c r="F219" t="n">
-        <v>1.80539718738122</v>
+        <v>1.80677063522252</v>
       </c>
       <c r="G219" t="n">
-        <v>-3.29337985871473</v>
+        <v>-3.29200641087344</v>
       </c>
     </row>
     <row r="220">
@@ -7947,10 +7947,10 @@
         <v>9</v>
       </c>
       <c r="F220" t="n">
-        <v>2.46609124537608</v>
+        <v>2.48138957816377</v>
       </c>
       <c r="G220" t="n">
-        <v>-2.36327127877073</v>
+        <v>-2.34797294598304</v>
       </c>
     </row>
     <row r="221">
@@ -7970,10 +7970,10 @@
         <v>9</v>
       </c>
       <c r="F221" t="n">
-        <v>2.0258863252673</v>
+        <v>2.02247191011236</v>
       </c>
       <c r="G221" t="n">
-        <v>-2.5250845485191</v>
+        <v>-2.52849896367405</v>
       </c>
     </row>
     <row r="222">
@@ -7993,10 +7993,10 @@
         <v>9</v>
       </c>
       <c r="F222" t="n">
-        <v>2.16776625824694</v>
+        <v>2.16267042783263</v>
       </c>
       <c r="G222" t="n">
-        <v>-2.97199929630671</v>
+        <v>-2.97709512672102</v>
       </c>
     </row>
     <row r="223">
@@ -8016,10 +8016,10 @@
         <v>9</v>
       </c>
       <c r="F223" t="n">
-        <v>1.68489506355306</v>
+        <v>1.67647058823529</v>
       </c>
       <c r="G223" t="n">
-        <v>-2.33842855160729</v>
+        <v>-2.34685302692506</v>
       </c>
     </row>
     <row r="224">
@@ -8039,10 +8039,10 @@
         <v>9</v>
       </c>
       <c r="F224" t="n">
-        <v>1.53627983928149</v>
+        <v>1.53519130845536</v>
       </c>
       <c r="G224" t="n">
-        <v>-1.02403527642505</v>
+        <v>-1.02512380725119</v>
       </c>
     </row>
     <row r="225">
@@ -8062,10 +8062,10 @@
         <v>9</v>
       </c>
       <c r="F225" t="n">
-        <v>1.40845070422535</v>
+        <v>1.40728476821192</v>
       </c>
       <c r="G225" t="n">
-        <v>-1.46924713750127</v>
+        <v>-1.4704130735147</v>
       </c>
     </row>
     <row r="226">
@@ -8085,10 +8085,10 @@
         <v>9</v>
       </c>
       <c r="F226" t="n">
-        <v>1.1544804837823</v>
+        <v>1.15798180314309</v>
       </c>
       <c r="G226" t="n">
-        <v>-1.87663539604603</v>
+        <v>-1.87313407668523</v>
       </c>
     </row>
     <row r="227">
@@ -8108,10 +8108,10 @@
         <v>9</v>
       </c>
       <c r="F227" t="n">
-        <v>1.78440029433407</v>
+        <v>1.78341606913035</v>
       </c>
       <c r="G227" t="n">
-        <v>-1.99875103171897</v>
+        <v>-1.99973525692269</v>
       </c>
     </row>
     <row r="228">
@@ -8131,10 +8131,10 @@
         <v>9</v>
       </c>
       <c r="F228" t="n">
-        <v>1.81783753077069</v>
+        <v>1.81508791832104</v>
       </c>
       <c r="G228" t="n">
-        <v>-2.34724424937385</v>
+        <v>-2.3499938618235</v>
       </c>
     </row>
     <row r="229">
@@ -8154,10 +8154,10 @@
         <v>9</v>
       </c>
       <c r="F229" t="n">
-        <v>2.00751980663354</v>
+        <v>2.00361857535348</v>
       </c>
       <c r="G229" t="n">
-        <v>-2.47703037110777</v>
+        <v>-2.48093160238784</v>
       </c>
     </row>
     <row r="230">
@@ -8177,10 +8177,10 @@
         <v>9</v>
       </c>
       <c r="F230" t="n">
-        <v>1.48514851485149</v>
+        <v>1.48148148148148</v>
       </c>
       <c r="G230" t="n">
-        <v>-2.5371978538636</v>
+        <v>-2.5408648872336</v>
       </c>
     </row>
     <row r="231">
@@ -8200,10 +8200,10 @@
         <v>9</v>
       </c>
       <c r="F231" t="n">
-        <v>1.49700598802395</v>
+        <v>1.47167034584253</v>
       </c>
       <c r="G231" t="n">
-        <v>-3.15415680267372</v>
+        <v>-3.17949244485514</v>
       </c>
     </row>
     <row r="232">
@@ -8223,10 +8223,10 @@
         <v>9</v>
       </c>
       <c r="F232" t="n">
-        <v>1.47383935151069</v>
+        <v>1.47221199852779</v>
       </c>
       <c r="G232" t="n">
-        <v>-2.42577454810321</v>
+        <v>-2.42740190108611</v>
       </c>
     </row>
     <row r="233">
@@ -8246,10 +8246,10 @@
         <v>9</v>
       </c>
       <c r="F233" t="n">
-        <v>1.97704963362367</v>
+        <v>1.97268588770865</v>
       </c>
       <c r="G233" t="n">
-        <v>-2.69095841466607</v>
+        <v>-2.69532216058109</v>
       </c>
     </row>
     <row r="234">
@@ -8269,10 +8269,10 @@
         <v>9</v>
       </c>
       <c r="F234" t="n">
-        <v>1.77111716621253</v>
+        <v>1.77353342428377</v>
       </c>
       <c r="G234" t="n">
-        <v>-2.01710738878518</v>
+        <v>-2.01469113071395</v>
       </c>
     </row>
     <row r="235">
@@ -8292,10 +8292,10 @@
         <v>9</v>
       </c>
       <c r="F235" t="n">
-        <v>1.31954350927247</v>
+        <v>1.32664037289351</v>
       </c>
       <c r="G235" t="n">
-        <v>-2.24511329770516</v>
+        <v>-2.23801643408412</v>
       </c>
     </row>
     <row r="236">
@@ -8315,10 +8315,10 @@
         <v>9</v>
       </c>
       <c r="F236" t="n">
-        <v>1.67865707434053</v>
+        <v>1.68168168168168</v>
       </c>
       <c r="G236" t="n">
-        <v>-2.10097136896505</v>
+        <v>-2.09794676162389</v>
       </c>
     </row>
     <row r="237">
@@ -8338,10 +8338,10 @@
         <v>9</v>
       </c>
       <c r="F237" t="n">
-        <v>1.4361920393927</v>
+        <v>1.4288630332721</v>
       </c>
       <c r="G237" t="n">
-        <v>-2.58464129394064</v>
+        <v>-2.59197030006124</v>
       </c>
     </row>
     <row r="238">
@@ -8361,10 +8361,10 @@
         <v>9</v>
       </c>
       <c r="F238" t="n">
-        <v>1.85676392572944</v>
+        <v>1.84404636459431</v>
       </c>
       <c r="G238" t="n">
-        <v>-1.90283363847495</v>
+        <v>-1.91555119961008</v>
       </c>
     </row>
     <row r="239">
@@ -8407,10 +8407,10 @@
         <v>9</v>
       </c>
       <c r="F240" t="n">
-        <v>1.91354860755168</v>
+        <v>1.91289496157131</v>
       </c>
       <c r="G240" t="n">
-        <v>-2.2803324512314</v>
+        <v>-2.28098609721178</v>
       </c>
     </row>
     <row r="241">
@@ -8430,10 +8430,10 @@
         <v>9</v>
       </c>
       <c r="F241" t="n">
-        <v>1.6331096196868</v>
+        <v>1.62764771460424</v>
       </c>
       <c r="G241" t="n">
-        <v>-2.53061656238801</v>
+        <v>-2.53607846747057</v>
       </c>
     </row>
     <row r="242">
@@ -8453,10 +8453,10 @@
         <v>9</v>
       </c>
       <c r="F242" t="n">
-        <v>1.97899838449111</v>
+        <v>1.97501007658202</v>
       </c>
       <c r="G242" t="n">
-        <v>-2.99591800346875</v>
+        <v>-2.99990631137784</v>
       </c>
     </row>
     <row r="243">
@@ -8476,10 +8476,10 @@
         <v>9</v>
       </c>
       <c r="F243" t="n">
-        <v>1.88694894869987</v>
+        <v>1.8849946143011</v>
       </c>
       <c r="G243" t="n">
-        <v>-2.60829067689769</v>
+        <v>-2.61024501129646</v>
       </c>
     </row>
     <row r="244">
@@ -8499,10 +8499,10 @@
         <v>9</v>
       </c>
       <c r="F244" t="n">
-        <v>2.14726384103838</v>
+        <v>2.14451468352405</v>
       </c>
       <c r="G244" t="n">
-        <v>-2.76639392976225</v>
+        <v>-2.76914308727658</v>
       </c>
     </row>
     <row r="245">
@@ -8522,10 +8522,10 @@
         <v>9</v>
       </c>
       <c r="F245" t="n">
-        <v>1.87293426367976</v>
+        <v>1.87431091510474</v>
       </c>
       <c r="G245" t="n">
-        <v>-3.37373762355594</v>
+        <v>-3.37236097213097</v>
       </c>
     </row>
     <row r="246">
@@ -8545,10 +8545,10 @@
         <v>9</v>
       </c>
       <c r="F246" t="n">
-        <v>2.11060646540208</v>
+        <v>2.10863472574403</v>
       </c>
       <c r="G246" t="n">
-        <v>-3.3822066762817</v>
+        <v>-3.38417841593975</v>
       </c>
     </row>
     <row r="247">
@@ -8568,10 +8568,10 @@
         <v>9</v>
       </c>
       <c r="F247" t="n">
-        <v>1.72610556348074</v>
+        <v>1.72536717524597</v>
       </c>
       <c r="G247" t="n">
-        <v>-2.92133033395516</v>
+        <v>-2.92206872218993</v>
       </c>
     </row>
     <row r="248">
@@ -8591,10 +8591,10 @@
         <v>9</v>
       </c>
       <c r="F248" t="n">
-        <v>1.45549542825154</v>
+        <v>1.45224353006889</v>
       </c>
       <c r="G248" t="n">
-        <v>-3.43461446185835</v>
+        <v>-3.437866360041</v>
       </c>
     </row>
     <row r="249">
@@ -8614,10 +8614,10 @@
         <v>9</v>
       </c>
       <c r="F249" t="n">
-        <v>1.57232704402516</v>
+        <v>1.5619576535925</v>
       </c>
       <c r="G249" t="n">
-        <v>-1.91329055326757</v>
+        <v>-1.92365994370022</v>
       </c>
     </row>
     <row r="250">
@@ -8637,10 +8637,10 @@
         <v>9</v>
       </c>
       <c r="F250" t="n">
-        <v>1.03281474702575</v>
+        <v>1.02891377963011</v>
       </c>
       <c r="G250" t="n">
-        <v>-1.7027102775081</v>
+        <v>-1.70661124490374</v>
       </c>
     </row>
     <row r="251">
@@ -8660,10 +8660,10 @@
         <v>9</v>
       </c>
       <c r="F251" t="n">
-        <v>1.46846145288686</v>
+        <v>1.46731880835927</v>
       </c>
       <c r="G251" t="n">
-        <v>-1.86281553662578</v>
+        <v>-1.86395818115338</v>
       </c>
     </row>
     <row r="252">
@@ -8683,10 +8683,10 @@
         <v>9</v>
       </c>
       <c r="F252" t="n">
-        <v>2.40769726544517</v>
+        <v>2.40117533630228</v>
       </c>
       <c r="G252" t="n">
-        <v>-2.74582104367895</v>
+        <v>-2.75234297282184</v>
       </c>
     </row>
     <row r="253">
@@ -8706,10 +8706,10 @@
         <v>9</v>
       </c>
       <c r="F253" t="n">
-        <v>1.99829931972789</v>
+        <v>1.99026042769426</v>
       </c>
       <c r="G253" t="n">
-        <v>-3.55607846276098</v>
+        <v>-3.56411735479461</v>
       </c>
     </row>
     <row r="254">
@@ -8729,10 +8729,10 @@
         <v>9</v>
       </c>
       <c r="F254" t="n">
-        <v>2.72749215544292</v>
+        <v>2.72092463279557</v>
       </c>
       <c r="G254" t="n">
-        <v>-1.78481413443858</v>
+        <v>-1.79138165708593</v>
       </c>
     </row>
     <row r="255">
@@ -8752,10 +8752,10 @@
         <v>9</v>
       </c>
       <c r="F255" t="n">
-        <v>1.79087232813403</v>
+        <v>1.78828958753966</v>
       </c>
       <c r="G255" t="n">
-        <v>-3.7261698440208</v>
+        <v>-3.72875258461516</v>
       </c>
     </row>
     <row r="256">
@@ -8775,10 +8775,10 @@
         <v>9</v>
       </c>
       <c r="F256" t="n">
-        <v>2.56912160508931</v>
+        <v>2.56175663311985</v>
       </c>
       <c r="G256" t="n">
-        <v>-2.71807319554305</v>
+        <v>-2.7254381675125</v>
       </c>
     </row>
     <row r="257">
@@ -8798,10 +8798,10 @@
         <v>9</v>
       </c>
       <c r="F257" t="n">
-        <v>2.87162162162162</v>
+        <v>2.8549836258292</v>
       </c>
       <c r="G257" t="n">
-        <v>-3.20614935204647</v>
+        <v>-3.22278734783889</v>
       </c>
     </row>
     <row r="258">
@@ -8821,10 +8821,10 @@
         <v>9</v>
       </c>
       <c r="F258" t="n">
-        <v>2.34853330896463</v>
+        <v>2.34574662285506</v>
       </c>
       <c r="G258" t="n">
-        <v>-2.71822767786002</v>
+        <v>-2.7210143639696</v>
       </c>
     </row>
     <row r="259">
@@ -8844,10 +8844,10 @@
         <v>9</v>
       </c>
       <c r="F259" t="n">
-        <v>2.04122877930477</v>
+        <v>2.03219315895372</v>
       </c>
       <c r="G259" t="n">
-        <v>-2.27138511014654</v>
+        <v>-2.28042073049758</v>
       </c>
     </row>
     <row r="260">
@@ -8867,10 +8867,10 @@
         <v>9</v>
       </c>
       <c r="F260" t="n">
-        <v>1.85244330884701</v>
+        <v>1.84390398982674</v>
       </c>
       <c r="G260" t="n">
-        <v>-2.45855351462901</v>
+        <v>-2.46709283364929</v>
       </c>
     </row>
     <row r="261">
@@ -8890,10 +8890,10 @@
         <v>9</v>
       </c>
       <c r="F261" t="n">
-        <v>1.99880668257757</v>
+        <v>1.98695136417556</v>
       </c>
       <c r="G261" t="n">
-        <v>-2.86432668958318</v>
+        <v>-2.87618200798518</v>
       </c>
     </row>
     <row r="262">
@@ -8913,10 +8913,10 @@
         <v>9</v>
       </c>
       <c r="F262" t="n">
-        <v>1.81288871245203</v>
+        <v>1.80714945257882</v>
       </c>
       <c r="G262" t="n">
-        <v>-2.38533102980916</v>
+        <v>-2.39107028968238</v>
       </c>
     </row>
     <row r="263">
@@ -8936,10 +8936,10 @@
         <v>9</v>
       </c>
       <c r="F263" t="n">
-        <v>1.76715176715177</v>
+        <v>1.7625712804562</v>
       </c>
       <c r="G263" t="n">
-        <v>-2.76425914942908</v>
+        <v>-2.76883963612465</v>
       </c>
     </row>
     <row r="264">
@@ -8959,10 +8959,10 @@
         <v>9</v>
       </c>
       <c r="F264" t="n">
-        <v>1.54999148356328</v>
+        <v>1.53664302600473</v>
       </c>
       <c r="G264" t="n">
-        <v>-3.35979338805366</v>
+        <v>-3.3731418456122</v>
       </c>
     </row>
     <row r="265">
@@ -8982,10 +8982,10 @@
         <v>9</v>
       </c>
       <c r="F265" t="n">
-        <v>1.78842584781508</v>
+        <v>1.78511283260357</v>
       </c>
       <c r="G265" t="n">
-        <v>-3.3647774948033</v>
+        <v>-3.36809051001481</v>
       </c>
     </row>
     <row r="266">
@@ -9005,10 +9005,10 @@
         <v>9</v>
       </c>
       <c r="F266" t="n">
-        <v>1.31950040290089</v>
+        <v>1.32792701469843</v>
       </c>
       <c r="G266" t="n">
-        <v>-3.33304364778215</v>
+        <v>-3.3246170359846</v>
       </c>
     </row>
     <row r="267">
@@ -9028,10 +9028,10 @@
         <v>9</v>
       </c>
       <c r="F267" t="n">
-        <v>1.24048491683112</v>
+        <v>1.24013528748591</v>
       </c>
       <c r="G267" t="n">
-        <v>-2.66280666487584</v>
+        <v>-2.66315629422105</v>
       </c>
     </row>
     <row r="268">
@@ -9051,10 +9051,10 @@
         <v>9</v>
       </c>
       <c r="F268" t="n">
-        <v>1.25823846614739</v>
+        <v>1.27041742286751</v>
       </c>
       <c r="G268" t="n">
-        <v>-2.71140543344397</v>
+        <v>-2.69922647672385</v>
       </c>
     </row>
     <row r="269">
@@ -9074,10 +9074,10 @@
         <v>9</v>
       </c>
       <c r="F269" t="n">
-        <v>1.79186767746382</v>
+        <v>1.80555555555556</v>
       </c>
       <c r="G269" t="n">
-        <v>-3.22685891429648</v>
+        <v>-3.21317103620474</v>
       </c>
     </row>
     <row r="270">
@@ -9097,10 +9097,10 @@
         <v>9</v>
       </c>
       <c r="F270" t="n">
-        <v>0.777934936350778</v>
+        <v>0.78125</v>
       </c>
       <c r="G270" t="n">
-        <v>-2.45947513559167</v>
+        <v>-2.45616007194245</v>
       </c>
     </row>
     <row r="271">
@@ -9120,10 +9120,10 @@
         <v>9</v>
       </c>
       <c r="F271" t="n">
-        <v>1.91717791411043</v>
+        <v>1.91864927091328</v>
       </c>
       <c r="G271" t="n">
-        <v>-2.07521752315193</v>
+        <v>-2.07374616634908</v>
       </c>
     </row>
     <row r="272">
@@ -9143,10 +9143,10 @@
         <v>9</v>
       </c>
       <c r="F272" t="n">
-        <v>2.17203504874738</v>
+        <v>2.17096336499322</v>
       </c>
       <c r="G272" t="n">
-        <v>-2.70397830366083</v>
+        <v>-2.70504998741499</v>
       </c>
     </row>
     <row r="273">
@@ -9166,10 +9166,10 @@
         <v>9</v>
       </c>
       <c r="F273" t="n">
-        <v>1.48401826484018</v>
+        <v>1.4877546349279</v>
       </c>
       <c r="G273" t="n">
-        <v>-3.65136922348848</v>
+        <v>-3.64763285340076</v>
       </c>
     </row>
     <row r="274">
@@ -9189,10 +9189,10 @@
         <v>9</v>
       </c>
       <c r="F274" t="n">
-        <v>2.08944281524927</v>
+        <v>2.09251101321586</v>
       </c>
       <c r="G274" t="n">
-        <v>-2.41037124202109</v>
+        <v>-2.4073030440545</v>
       </c>
     </row>
     <row r="275">
@@ -9212,10 +9212,10 @@
         <v>9</v>
       </c>
       <c r="F275" t="n">
-        <v>1.90638782188078</v>
+        <v>1.90286850326612</v>
       </c>
       <c r="G275" t="n">
-        <v>-2.92413228241454</v>
+        <v>-2.9276516010292</v>
       </c>
     </row>
     <row r="276">
@@ -9235,10 +9235,10 @@
         <v>9</v>
       </c>
       <c r="F276" t="n">
-        <v>2.71268057784912</v>
+        <v>2.70291883246701</v>
       </c>
       <c r="G276" t="n">
-        <v>-3.01291095893518</v>
+        <v>-3.02267270431729</v>
       </c>
     </row>
     <row r="277">
@@ -9258,10 +9258,10 @@
         <v>9</v>
       </c>
       <c r="F277" t="n">
-        <v>1.9453797231575</v>
+        <v>1.93308550185874</v>
       </c>
       <c r="G277" t="n">
-        <v>-2.9422406835496</v>
+        <v>-2.95453490484836</v>
       </c>
     </row>
     <row r="278">
@@ -9281,10 +9281,10 @@
         <v>9</v>
       </c>
       <c r="F278" t="n">
-        <v>1.29338219443846</v>
+        <v>1.2911555842479</v>
       </c>
       <c r="G278" t="n">
-        <v>-2.38773303100262</v>
+        <v>-2.38995964119318</v>
       </c>
     </row>
     <row r="279">
@@ -9327,10 +9327,10 @@
         <v>9</v>
       </c>
       <c r="F280" t="n">
-        <v>1.53741031773147</v>
+        <v>1.52905198776758</v>
       </c>
       <c r="G280" t="n">
-        <v>-2.57889154440509</v>
+        <v>-2.58724987436897</v>
       </c>
     </row>
     <row r="281">
@@ -9350,10 +9350,10 @@
         <v>9</v>
       </c>
       <c r="F281" t="n">
-        <v>1.5831894070236</v>
+        <v>1.58592848904268</v>
       </c>
       <c r="G281" t="n">
-        <v>-2.34608367745577</v>
+        <v>-2.34334459543669</v>
       </c>
     </row>
     <row r="282">
@@ -9373,10 +9373,10 @@
         <v>9</v>
       </c>
       <c r="F282" t="n">
-        <v>1.36460554371002</v>
+        <v>1.35823429541596</v>
       </c>
       <c r="G282" t="n">
-        <v>-2.25084227880436</v>
+        <v>-2.25721352709842</v>
       </c>
     </row>
     <row r="283">
@@ -9396,10 +9396,10 @@
         <v>9</v>
       </c>
       <c r="F283" t="n">
-        <v>1.49037466363072</v>
+        <v>1.48117671261057</v>
       </c>
       <c r="G283" t="n">
-        <v>-2.55845544827162</v>
+        <v>-2.56765339929177</v>
       </c>
     </row>
     <row r="284">
@@ -9419,10 +9419,10 @@
         <v>9</v>
       </c>
       <c r="F284" t="n">
-        <v>2.25</v>
+        <v>2.23880597014925</v>
       </c>
       <c r="G284" t="n">
-        <v>-3.92042115572968</v>
+        <v>-3.93161518558042</v>
       </c>
     </row>
     <row r="285">
@@ -9442,10 +9442,10 @@
         <v>9</v>
       </c>
       <c r="F285" t="n">
-        <v>1.8783542039356</v>
+        <v>1.87541862022773</v>
       </c>
       <c r="G285" t="n">
-        <v>-2.22973015458813</v>
+        <v>-2.232665738296</v>
       </c>
     </row>
     <row r="286">
@@ -9465,10 +9465,10 @@
         <v>9</v>
       </c>
       <c r="F286" t="n">
-        <v>1.78352858891415</v>
+        <v>1.77483904645902</v>
       </c>
       <c r="G286" t="n">
-        <v>-3.02184516237762</v>
+        <v>-3.03053470483274</v>
       </c>
     </row>
     <row r="287">
@@ -9488,10 +9488,10 @@
         <v>9</v>
       </c>
       <c r="F287" t="n">
-        <v>1.506456241033</v>
+        <v>1.5057361376673</v>
       </c>
       <c r="G287" t="n">
-        <v>-2.90565359233945</v>
+        <v>-2.90637369570514</v>
       </c>
     </row>
     <row r="288">
@@ -9511,10 +9511,10 @@
         <v>9</v>
       </c>
       <c r="F288" t="n">
-        <v>1.58371040723982</v>
+        <v>1.57942238267148</v>
       </c>
       <c r="G288" t="n">
-        <v>-2.63153622953148</v>
+        <v>-2.63582425409982</v>
       </c>
     </row>
     <row r="289">
@@ -9534,10 +9534,10 @@
         <v>9</v>
       </c>
       <c r="F289" t="n">
-        <v>2.03160270880361</v>
+        <v>2.02816901408451</v>
       </c>
       <c r="G289" t="n">
-        <v>-3.26220353788776</v>
+        <v>-3.26563723260686</v>
       </c>
     </row>
     <row r="290">
@@ -9557,10 +9557,10 @@
         <v>9</v>
       </c>
       <c r="F290" t="n">
-        <v>1.7837411207577</v>
+        <v>1.7879746835443</v>
       </c>
       <c r="G290" t="n">
-        <v>-2.1566042481591</v>
+        <v>-2.15237068537249</v>
       </c>
     </row>
     <row r="291">
@@ -9580,10 +9580,10 @@
         <v>9</v>
       </c>
       <c r="F291" t="n">
-        <v>1.84529828109201</v>
+        <v>1.84436584133401</v>
       </c>
       <c r="G291" t="n">
-        <v>-2.7540723313505</v>
+        <v>-2.7550047711085</v>
       </c>
     </row>
     <row r="292">
@@ -9603,10 +9603,10 @@
         <v>9</v>
       </c>
       <c r="F292" t="n">
-        <v>2.052067381317</v>
+        <v>2.04517704517705</v>
       </c>
       <c r="G292" t="n">
-        <v>-2.96513445354539</v>
+        <v>-2.97202478968534</v>
       </c>
     </row>
     <row r="293">
@@ -9626,10 +9626,10 @@
         <v>9</v>
       </c>
       <c r="F293" t="n">
-        <v>2.04280155642023</v>
+        <v>2.03291384317522</v>
       </c>
       <c r="G293" t="n">
-        <v>-2.29290609300683</v>
+        <v>-2.30279380625185</v>
       </c>
     </row>
     <row r="294">
@@ -9649,10 +9649,10 @@
         <v>9</v>
       </c>
       <c r="F294" t="n">
-        <v>1.64722031571723</v>
+        <v>1.63990433891356</v>
       </c>
       <c r="G294" t="n">
-        <v>-3.72302651550359</v>
+        <v>-3.73034249230725</v>
       </c>
     </row>
     <row r="295">
@@ -9672,10 +9672,10 @@
         <v>9</v>
       </c>
       <c r="F295" t="n">
-        <v>1.9471083987213</v>
+        <v>1.9364161849711</v>
       </c>
       <c r="G295" t="n">
-        <v>-2.83968664942175</v>
+        <v>-2.85037886317196</v>
       </c>
     </row>
     <row r="296">
@@ -9695,10 +9695,10 @@
         <v>9</v>
       </c>
       <c r="F296" t="n">
-        <v>2.12236776653955</v>
+        <v>2.11465389063274</v>
       </c>
       <c r="G296" t="n">
-        <v>-3.38665285201715</v>
+        <v>-3.39436672792396</v>
       </c>
     </row>
     <row r="297">
@@ -9718,10 +9718,10 @@
         <v>9</v>
       </c>
       <c r="F297" t="n">
-        <v>2.18136491118729</v>
+        <v>2.17391304347826</v>
       </c>
       <c r="G297" t="n">
-        <v>-3.10988242031622</v>
+        <v>-3.11733428802525</v>
       </c>
     </row>
     <row r="298">
@@ -9741,10 +9741,10 @@
         <v>9</v>
       </c>
       <c r="F298" t="n">
-        <v>1.95109261186264</v>
+        <v>1.9377341428756</v>
       </c>
       <c r="G298" t="n">
-        <v>-3.48572778558768</v>
+        <v>-3.49908625457472</v>
       </c>
     </row>
     <row r="299">
@@ -9764,10 +9764,10 @@
         <v>9</v>
       </c>
       <c r="F299" t="n">
-        <v>2.08422862054147</v>
+        <v>2.07087959009394</v>
       </c>
       <c r="G299" t="n">
-        <v>-3.43435711583011</v>
+        <v>-3.44770614627764</v>
       </c>
     </row>
     <row r="300">
@@ -9787,10 +9787,10 @@
         <v>9</v>
       </c>
       <c r="F300" t="n">
-        <v>1.61290322580645</v>
+        <v>1.60053351117039</v>
       </c>
       <c r="G300" t="n">
-        <v>-3.732598729865</v>
+        <v>-3.74496844450106</v>
       </c>
     </row>
     <row r="301">
@@ -9810,10 +9810,10 @@
         <v>9</v>
       </c>
       <c r="F301" t="n">
-        <v>1.51800867433528</v>
+        <v>1.51686451856039</v>
       </c>
       <c r="G301" t="n">
-        <v>-2.12484846852186</v>
+        <v>-2.12599262429675</v>
       </c>
     </row>
     <row r="302">
@@ -9833,10 +9833,10 @@
         <v>9</v>
       </c>
       <c r="F302" t="n">
-        <v>1.69642857142857</v>
+        <v>1.6946632971607</v>
       </c>
       <c r="G302" t="n">
-        <v>-3.11812706188144</v>
+        <v>-3.11989233614931</v>
       </c>
     </row>
     <row r="303">
@@ -9856,10 +9856,10 @@
         <v>9</v>
       </c>
       <c r="F303" t="n">
-        <v>2.50745609190324</v>
+        <v>2.50137741046832</v>
       </c>
       <c r="G303" t="n">
-        <v>-2.46586516048778</v>
+        <v>-2.4719438419227</v>
       </c>
     </row>
     <row r="304">
@@ -9879,10 +9879,10 @@
         <v>9</v>
       </c>
       <c r="F304" t="n">
-        <v>1.63194444444444</v>
+        <v>1.62821312270491</v>
       </c>
       <c r="G304" t="n">
-        <v>-2.04610827206981</v>
+        <v>-2.04983959380934</v>
       </c>
     </row>
     <row r="305">
@@ -9902,10 +9902,10 @@
         <v>9</v>
       </c>
       <c r="F305" t="n">
-        <v>1.35068762278978</v>
+        <v>1.34737873591377</v>
       </c>
       <c r="G305" t="n">
-        <v>-2.59212999307372</v>
+        <v>-2.59543887994973</v>
       </c>
     </row>
     <row r="306">
@@ -9925,10 +9925,10 @@
         <v>9</v>
       </c>
       <c r="F306" t="n">
-        <v>2.47198417930125</v>
+        <v>2.46669955599408</v>
       </c>
       <c r="G306" t="n">
-        <v>-3.04040403357076</v>
+        <v>-3.04568865687793</v>
       </c>
     </row>
     <row r="307">
@@ -9948,10 +9948,10 @@
         <v>9</v>
       </c>
       <c r="F307" t="n">
-        <v>1.56213017751479</v>
+        <v>1.56028368794326</v>
       </c>
       <c r="G307" t="n">
-        <v>-3.58185751208732</v>
+        <v>-3.58370400165885</v>
       </c>
     </row>
     <row r="308">
@@ -9971,10 +9971,10 @@
         <v>9</v>
       </c>
       <c r="F308" t="n">
-        <v>2.8302917713911</v>
+        <v>2.81674823273518</v>
       </c>
       <c r="G308" t="n">
-        <v>-3.88431223914161</v>
+        <v>-3.89785577779753</v>
       </c>
     </row>
     <row r="309">
@@ -9994,10 +9994,10 @@
         <v>9</v>
       </c>
       <c r="F309" t="n">
-        <v>2.05907906168549</v>
+        <v>2.05319241098501</v>
       </c>
       <c r="G309" t="n">
-        <v>-3.28361292840534</v>
+        <v>-3.28949957910582</v>
       </c>
     </row>
     <row r="310">
@@ -10017,10 +10017,10 @@
         <v>9</v>
       </c>
       <c r="F310" t="n">
-        <v>2.34978180597516</v>
+        <v>2.34584450402145</v>
       </c>
       <c r="G310" t="n">
-        <v>-3.07039085275066</v>
+        <v>-3.07432815470438</v>
       </c>
     </row>
     <row r="311">
@@ -10040,10 +10040,10 @@
         <v>9</v>
       </c>
       <c r="F311" t="n">
-        <v>2.44973307389113</v>
+        <v>2.44351547725689</v>
       </c>
       <c r="G311" t="n">
-        <v>-2.74440303214605</v>
+        <v>-2.7506206287803</v>
       </c>
     </row>
     <row r="312">
@@ -10063,10 +10063,10 @@
         <v>9</v>
       </c>
       <c r="F312" t="n">
-        <v>1.89696856983448</v>
+        <v>1.89344718767403</v>
       </c>
       <c r="G312" t="n">
-        <v>-2.62564449549215</v>
+        <v>-2.6291658776526</v>
       </c>
     </row>
     <row r="313">
@@ -10086,10 +10086,10 @@
         <v>9</v>
       </c>
       <c r="F313" t="n">
-        <v>1.98586977277067</v>
+        <v>1.98038655622203</v>
       </c>
       <c r="G313" t="n">
-        <v>-2.54273910366429</v>
+        <v>-2.54822232021293</v>
       </c>
     </row>
     <row r="314">
@@ -10109,10 +10109,10 @@
         <v>9</v>
       </c>
       <c r="F314" t="n">
-        <v>2.2834116856951</v>
+        <v>2.280348759222</v>
       </c>
       <c r="G314" t="n">
-        <v>-2.90275852707086</v>
+        <v>-2.90582145354396</v>
       </c>
     </row>
     <row r="315">
@@ -10132,10 +10132,10 @@
         <v>9</v>
       </c>
       <c r="F315" t="n">
-        <v>1.82142402241753</v>
+        <v>1.81633430712562</v>
       </c>
       <c r="G315" t="n">
-        <v>-2.0037802360623</v>
+        <v>-2.0088699513542</v>
       </c>
     </row>
     <row r="316">
@@ -10155,10 +10155,10 @@
         <v>9</v>
       </c>
       <c r="F316" t="n">
-        <v>2.45327102803738</v>
+        <v>2.44565217391304</v>
       </c>
       <c r="G316" t="n">
-        <v>-2.12214580019061</v>
+        <v>-2.12976465431495</v>
       </c>
     </row>
     <row r="317">
@@ -10178,10 +10178,10 @@
         <v>9</v>
       </c>
       <c r="F317" t="n">
-        <v>1.763622005791</v>
+        <v>1.75760755508919</v>
       </c>
       <c r="G317" t="n">
-        <v>-2.52351657845626</v>
+        <v>-2.52953102915807</v>
       </c>
     </row>
     <row r="318">
@@ -10201,10 +10201,10 @@
         <v>9</v>
       </c>
       <c r="F318" t="n">
-        <v>2.19543693499785</v>
+        <v>2.18665142203802</v>
       </c>
       <c r="G318" t="n">
-        <v>-3.22355747840997</v>
+        <v>-3.23234299136981</v>
       </c>
     </row>
     <row r="319">
@@ -10224,10 +10224,10 @@
         <v>9</v>
       </c>
       <c r="F319" t="n">
-        <v>2.02726319468717</v>
+        <v>2.02939118264521</v>
       </c>
       <c r="G319" t="n">
-        <v>-2.66562845472622</v>
+        <v>-2.66350046676818</v>
       </c>
     </row>
     <row r="320">
@@ -10247,10 +10247,10 @@
         <v>9</v>
       </c>
       <c r="F320" t="n">
-        <v>2.24244698817789</v>
+        <v>2.23866616710378</v>
       </c>
       <c r="G320" t="n">
-        <v>-2.9707349146335</v>
+        <v>-2.97451573570761</v>
       </c>
     </row>
     <row r="321">
@@ -10270,10 +10270,10 @@
         <v>9</v>
       </c>
       <c r="F321" t="n">
-        <v>2.4954128440367</v>
+        <v>2.49221183800623</v>
       </c>
       <c r="G321" t="n">
-        <v>-2.40240846993054</v>
+        <v>-2.405609475961</v>
       </c>
     </row>
     <row r="322">
@@ -10293,10 +10293,10 @@
         <v>9</v>
       </c>
       <c r="F322" t="n">
-        <v>2.24332732929425</v>
+        <v>2.24369472649853</v>
       </c>
       <c r="G322" t="n">
-        <v>-2.86616172180064</v>
+        <v>-2.86579432459637</v>
       </c>
     </row>
     <row r="323">
@@ -10316,10 +10316,10 @@
         <v>9</v>
       </c>
       <c r="F323" t="n">
-        <v>2.52880022478224</v>
+        <v>2.51396648044693</v>
       </c>
       <c r="G323" t="n">
-        <v>-2.68146161071101</v>
+        <v>-2.69629535504633</v>
       </c>
     </row>
     <row r="324">
@@ -10339,10 +10339,10 @@
         <v>9</v>
       </c>
       <c r="F324" t="n">
-        <v>3.15030645622281</v>
+        <v>3.13894250545834</v>
       </c>
       <c r="G324" t="n">
-        <v>-2.87357625836693</v>
+        <v>-2.88494020913139</v>
       </c>
     </row>
     <row r="325">
@@ -10362,10 +10362,10 @@
         <v>9</v>
       </c>
       <c r="F325" t="n">
-        <v>2.69246660239636</v>
+        <v>2.68322810870162</v>
       </c>
       <c r="G325" t="n">
-        <v>-3.42462121346553</v>
+        <v>-3.43385970716028</v>
       </c>
     </row>
     <row r="326">
@@ -10385,10 +10385,10 @@
         <v>9</v>
       </c>
       <c r="F326" t="n">
-        <v>2.00868621064061</v>
+        <v>1.99353448275862</v>
       </c>
       <c r="G326" t="n">
-        <v>-2.146438443099</v>
+        <v>-2.16159017098099</v>
       </c>
     </row>
     <row r="327">
@@ -10408,10 +10408,10 @@
         <v>9</v>
       </c>
       <c r="F327" t="n">
-        <v>1.79756045367002</v>
+        <v>1.79794520547945</v>
       </c>
       <c r="G327" t="n">
-        <v>-2.62268298002633</v>
+        <v>-2.6222982282169</v>
       </c>
     </row>
     <row r="328">
@@ -10431,10 +10431,10 @@
         <v>9</v>
       </c>
       <c r="F328" t="n">
-        <v>1.7524115755627</v>
+        <v>1.74987959544068</v>
       </c>
       <c r="G328" t="n">
-        <v>-2.01006184174468</v>
+        <v>-2.0125938218667</v>
       </c>
     </row>
     <row r="329">
@@ -10454,10 +10454,10 @@
         <v>9</v>
       </c>
       <c r="F329" t="n">
-        <v>1.51834668916069</v>
+        <v>1.51674741942279</v>
       </c>
       <c r="G329" t="n">
-        <v>-2.75893944653252</v>
+        <v>-2.76053871627042</v>
       </c>
     </row>
     <row r="330">
@@ -10477,10 +10477,10 @@
         <v>9</v>
       </c>
       <c r="F330" t="n">
-        <v>1.65214779212977</v>
+        <v>1.63983303518187</v>
       </c>
       <c r="G330" t="n">
-        <v>-2.36840843519792</v>
+        <v>-2.38072319214582</v>
       </c>
     </row>
     <row r="331">
@@ -10500,10 +10500,10 @@
         <v>9</v>
       </c>
       <c r="F331" t="n">
-        <v>1.73611111111111</v>
+        <v>1.72943889315911</v>
       </c>
       <c r="G331" t="n">
-        <v>-3.53497322623829</v>
+        <v>-3.54164544419029</v>
       </c>
     </row>
     <row r="332">
@@ -10523,10 +10523,10 @@
         <v>9</v>
       </c>
       <c r="F332" t="n">
-        <v>1.60951714485654</v>
+        <v>1.60614525139665</v>
       </c>
       <c r="G332" t="n">
-        <v>-3.05765959577085</v>
+        <v>-3.06103148923074</v>
       </c>
     </row>
     <row r="333">
@@ -10546,10 +10546,10 @@
         <v>9</v>
       </c>
       <c r="F333" t="n">
-        <v>2.49801394650896</v>
+        <v>2.48791208791209</v>
       </c>
       <c r="G333" t="n">
-        <v>-3.89622516506487</v>
+        <v>-3.90632702366175</v>
       </c>
     </row>
     <row r="334">
@@ -10569,10 +10569,10 @@
         <v>9</v>
       </c>
       <c r="F334" t="n">
-        <v>1.20019203072492</v>
+        <v>1.20307988450433</v>
       </c>
       <c r="G334" t="n">
-        <v>-1.9039149415769</v>
+        <v>-1.90102708779748</v>
       </c>
     </row>
     <row r="335">
@@ -10592,10 +10592,10 @@
         <v>9</v>
       </c>
       <c r="F335" t="n">
-        <v>1.54559505409583</v>
+        <v>1.53757447626369</v>
       </c>
       <c r="G335" t="n">
-        <v>-2.82034697488968</v>
+        <v>-2.82836755272181</v>
       </c>
     </row>
     <row r="336">
@@ -10615,10 +10615,10 @@
         <v>9</v>
       </c>
       <c r="F336" t="n">
-        <v>1.92433564602697</v>
+        <v>1.9185591229444</v>
       </c>
       <c r="G336" t="n">
-        <v>-2.77165400468455</v>
+        <v>-2.77743052776711</v>
       </c>
     </row>
     <row r="337">
@@ -10638,10 +10638,10 @@
         <v>9</v>
       </c>
       <c r="F337" t="n">
-        <v>1.49646107178969</v>
+        <v>1.48953301127214</v>
       </c>
       <c r="G337" t="n">
-        <v>-2.23242232334834</v>
+        <v>-2.23935038386589</v>
       </c>
     </row>
     <row r="338">
@@ -10661,10 +10661,10 @@
         <v>9</v>
       </c>
       <c r="F338" t="n">
-        <v>1.36857892763405</v>
+        <v>1.36550692106248</v>
       </c>
       <c r="G338" t="n">
-        <v>-2.77185228778286</v>
+        <v>-2.77492429435443</v>
       </c>
     </row>
     <row r="339">
@@ -10684,10 +10684,10 @@
         <v>9</v>
       </c>
       <c r="F339" t="n">
-        <v>2.40121104557081</v>
+        <v>2.39670713280884</v>
       </c>
       <c r="G339" t="n">
-        <v>-2.81198843758196</v>
+        <v>-2.81649235034393</v>
       </c>
     </row>
     <row r="340">
@@ -10707,10 +10707,10 @@
         <v>9</v>
       </c>
       <c r="F340" t="n">
-        <v>2.75725355919986</v>
+        <v>2.75229357798165</v>
       </c>
       <c r="G340" t="n">
-        <v>-3.12821833899739</v>
+        <v>-3.13317832021559</v>
       </c>
     </row>
     <row r="341">
@@ -10730,10 +10730,10 @@
         <v>9</v>
       </c>
       <c r="F341" t="n">
-        <v>3.11730926989336</v>
+        <v>3.11161501637692</v>
       </c>
       <c r="G341" t="n">
-        <v>-3.26763260130059</v>
+        <v>-3.27332685481703</v>
       </c>
     </row>
     <row r="342">
@@ -10753,10 +10753,10 @@
         <v>9</v>
       </c>
       <c r="F342" t="n">
-        <v>3.67099693475405</v>
+        <v>3.6648451730419</v>
       </c>
       <c r="G342" t="n">
-        <v>-3.47531253151675</v>
+        <v>-3.48146429322891</v>
       </c>
     </row>
     <row r="343">
@@ -10776,10 +10776,10 @@
         <v>9</v>
       </c>
       <c r="F343" t="n">
-        <v>2.95465170640486</v>
+        <v>2.94693649165346</v>
       </c>
       <c r="G343" t="n">
-        <v>-4.0757243369649</v>
+        <v>-4.08343955171631</v>
       </c>
     </row>
     <row r="344">
@@ -10799,10 +10799,10 @@
         <v>9</v>
       </c>
       <c r="F344" t="n">
-        <v>2.07978179338561</v>
+        <v>2.08404509736932</v>
       </c>
       <c r="G344" t="n">
-        <v>-2.8342231206193</v>
+        <v>-2.82995981663559</v>
       </c>
     </row>
     <row r="345">
@@ -10822,10 +10822,10 @@
         <v>9</v>
       </c>
       <c r="F345" t="n">
-        <v>1.98506956226671</v>
+        <v>1.97852371691891</v>
       </c>
       <c r="G345" t="n">
-        <v>-3.50625991750207</v>
+        <v>-3.51280576284987</v>
       </c>
     </row>
     <row r="346">
@@ -10845,10 +10845,10 @@
         <v>9</v>
       </c>
       <c r="F346" t="n">
-        <v>2.12656137090947</v>
+        <v>2.12086893853598</v>
       </c>
       <c r="G346" t="n">
-        <v>-2.30103387387196</v>
+        <v>-2.30672630624545</v>
       </c>
     </row>
     <row r="347">
@@ -10868,10 +10868,10 @@
         <v>9</v>
       </c>
       <c r="F347" t="n">
-        <v>1.59189580318379</v>
+        <v>1.59028480555154</v>
       </c>
       <c r="G347" t="n">
-        <v>-2.97564549905139</v>
+        <v>-2.97725649668364</v>
       </c>
     </row>
     <row r="348">
@@ -10891,10 +10891,10 @@
         <v>9</v>
       </c>
       <c r="F348" t="n">
-        <v>1.82767624020888</v>
+        <v>1.82877813504823</v>
       </c>
       <c r="G348" t="n">
-        <v>-2.53466982533068</v>
+        <v>-2.53356793049132</v>
       </c>
     </row>
     <row r="349">
@@ -10914,10 +10914,10 @@
         <v>9</v>
       </c>
       <c r="F349" t="n">
-        <v>2.1337060330771</v>
+        <v>2.13033164333225</v>
       </c>
       <c r="G349" t="n">
-        <v>-3.34735405992935</v>
+        <v>-3.35072844967421</v>
       </c>
     </row>
     <row r="350">
@@ -10937,10 +10937,10 @@
         <v>9</v>
       </c>
       <c r="F350" t="n">
-        <v>2.01409097871037</v>
+        <v>2.00932080372832</v>
       </c>
       <c r="G350" t="n">
-        <v>-3.23701684994546</v>
+        <v>-3.24178702492751</v>
       </c>
     </row>
     <row r="351">
@@ -10960,10 +10960,10 @@
         <v>9</v>
       </c>
       <c r="F351" t="n">
-        <v>1.56569700204608</v>
+        <v>1.5647226173542</v>
       </c>
       <c r="G351" t="n">
-        <v>-2.84619669148957</v>
+        <v>-2.84717107618146</v>
       </c>
     </row>
     <row r="352">
@@ -10983,10 +10983,10 @@
         <v>9</v>
       </c>
       <c r="F352" t="n">
-        <v>3.10534591194969</v>
+        <v>3.09986266431234</v>
       </c>
       <c r="G352" t="n">
-        <v>-2.94555282448028</v>
+        <v>-2.95103607211763</v>
       </c>
     </row>
     <row r="353">
@@ -11006,10 +11006,10 @@
         <v>9</v>
       </c>
       <c r="F353" t="n">
-        <v>2.76092233009709</v>
+        <v>2.75674038170251</v>
       </c>
       <c r="G353" t="n">
-        <v>-3.54348654381474</v>
+        <v>-3.54766849220931</v>
       </c>
     </row>
     <row r="354">
@@ -11029,10 +11029,10 @@
         <v>9</v>
       </c>
       <c r="F354" t="n">
-        <v>3.45798150381986</v>
+        <v>3.4572864321608</v>
       </c>
       <c r="G354" t="n">
-        <v>-3.42121312705262</v>
+        <v>-3.42190819871168</v>
       </c>
     </row>
     <row r="355">
@@ -11052,10 +11052,10 @@
         <v>9</v>
       </c>
       <c r="F355" t="n">
-        <v>2.30270043960645</v>
+        <v>2.29357798165138</v>
       </c>
       <c r="G355" t="n">
-        <v>-3.63354693584688</v>
+        <v>-3.64266939380196</v>
       </c>
     </row>
     <row r="356">
@@ -11075,10 +11075,10 @@
         <v>9</v>
       </c>
       <c r="F356" t="n">
-        <v>3.49469324359306</v>
+        <v>3.49017580144778</v>
       </c>
       <c r="G356" t="n">
-        <v>-3.54598623785531</v>
+        <v>-3.55050368000059</v>
       </c>
     </row>
     <row r="357">
@@ -11098,10 +11098,10 @@
         <v>9</v>
       </c>
       <c r="F357" t="n">
-        <v>3.63900264371987</v>
+        <v>3.62322580645161</v>
       </c>
       <c r="G357" t="n">
-        <v>-3.65006375667953</v>
+        <v>-3.66584059394779</v>
       </c>
     </row>
     <row r="358">
@@ -11124,7 +11124,7 @@
         <v>1.70166545981173</v>
       </c>
       <c r="G358" t="n">
-        <v>-3.54333108953264</v>
+        <v>-3.54333108953265</v>
       </c>
     </row>
     <row r="359">
@@ -11144,10 +11144,10 @@
         <v>9</v>
       </c>
       <c r="F359" t="n">
-        <v>2.84218399401645</v>
+        <v>2.82990765564492</v>
       </c>
       <c r="G359" t="n">
-        <v>-2.461773574323</v>
+        <v>-2.47404991269453</v>
       </c>
     </row>
     <row r="360">
@@ -11167,10 +11167,10 @@
         <v>9</v>
       </c>
       <c r="F360" t="n">
-        <v>1.92461908580593</v>
+        <v>1.92192192192192</v>
       </c>
       <c r="G360" t="n">
-        <v>-3.8336939717772</v>
+        <v>-3.83639113566121</v>
       </c>
     </row>
     <row r="361">
@@ -11190,10 +11190,10 @@
         <v>9</v>
       </c>
       <c r="F361" t="n">
-        <v>2.47689816137944</v>
+        <v>2.47218788627936</v>
       </c>
       <c r="G361" t="n">
-        <v>-3.41186955944935</v>
+        <v>-3.41657983454943</v>
       </c>
     </row>
     <row r="362">
@@ -11213,10 +11213,10 @@
         <v>9</v>
       </c>
       <c r="F362" t="n">
-        <v>3.48926972363749</v>
+        <v>3.47906403940887</v>
       </c>
       <c r="G362" t="n">
-        <v>-4.49584762038083</v>
+        <v>-4.50605330460945</v>
       </c>
     </row>
     <row r="363">
@@ -11236,10 +11236,10 @@
         <v>9</v>
       </c>
       <c r="F363" t="n">
-        <v>2.25563909774436</v>
+        <v>2.25115269867101</v>
       </c>
       <c r="G363" t="n">
-        <v>-4.13327400257814</v>
+        <v>-4.13776040165149</v>
       </c>
     </row>
     <row r="364">
@@ -11259,10 +11259,10 @@
         <v>9</v>
       </c>
       <c r="F364" t="n">
-        <v>1.56067108856808</v>
+        <v>1.56678417547983</v>
       </c>
       <c r="G364" t="n">
-        <v>-4.94820465107689</v>
+        <v>-4.94209156416514</v>
       </c>
     </row>
     <row r="365">
@@ -11282,10 +11282,10 @@
         <v>9</v>
       </c>
       <c r="F365" t="n">
-        <v>2.60228422726616</v>
+        <v>2.60002888920988</v>
       </c>
       <c r="G365" t="n">
-        <v>-2.17563366540584</v>
+        <v>-2.17788900346211</v>
       </c>
     </row>
     <row r="366">
@@ -11305,10 +11305,10 @@
         <v>9</v>
       </c>
       <c r="F366" t="n">
-        <v>2.40572171651495</v>
+        <v>2.41199478487614</v>
       </c>
       <c r="G366" t="n">
-        <v>-3.86757020895088</v>
+        <v>-3.8612971405897</v>
       </c>
     </row>
     <row r="367">
@@ -11328,10 +11328,10 @@
         <v>9</v>
       </c>
       <c r="F367" t="n">
-        <v>3.3213644524237</v>
+        <v>3.29035126722988</v>
       </c>
       <c r="G367" t="n">
-        <v>-1.89453978015433</v>
+        <v>-1.92555296534814</v>
       </c>
     </row>
     <row r="368">
@@ -11351,10 +11351,10 @@
         <v>9</v>
       </c>
       <c r="F368" t="n">
-        <v>2.23721590909091</v>
+        <v>2.22379103423932</v>
       </c>
       <c r="G368" t="n">
-        <v>-3.66418747342079</v>
+        <v>-3.67761234827237</v>
       </c>
     </row>
     <row r="369">
@@ -11374,10 +11374,10 @@
         <v>9</v>
       </c>
       <c r="F369" t="n">
-        <v>3.29872519384939</v>
+        <v>3.29396325459318</v>
       </c>
       <c r="G369" t="n">
-        <v>-4.01803707511173</v>
+        <v>-4.02279901436795</v>
       </c>
     </row>
     <row r="370">
@@ -11397,10 +11397,10 @@
         <v>9</v>
       </c>
       <c r="F370" t="n">
-        <v>3.2670248293887</v>
+        <v>3.2561505065123</v>
       </c>
       <c r="G370" t="n">
-        <v>-4.06703690237857</v>
+        <v>-4.07791122525498</v>
       </c>
     </row>
     <row r="371">
@@ -11420,10 +11420,10 @@
         <v>9</v>
       </c>
       <c r="F371" t="n">
-        <v>2.30787820202997</v>
+        <v>2.30203688080029</v>
       </c>
       <c r="G371" t="n">
-        <v>-4.62189544857944</v>
+        <v>-4.62773676980911</v>
       </c>
     </row>
     <row r="372">
@@ -11443,10 +11443,10 @@
         <v>9</v>
       </c>
       <c r="F372" t="n">
-        <v>2.83916513198281</v>
+        <v>2.83524904214559</v>
       </c>
       <c r="G372" t="n">
-        <v>-3.81960965345667</v>
+        <v>-3.82352574329389</v>
       </c>
     </row>
     <row r="373">
@@ -11466,10 +11466,10 @@
         <v>9</v>
       </c>
       <c r="F373" t="n">
-        <v>2.91666666666667</v>
+        <v>2.9093931837074</v>
       </c>
       <c r="G373" t="n">
-        <v>-3.06518151815182</v>
+        <v>-3.07245500111108</v>
       </c>
     </row>
     <row r="374">
@@ -11489,10 +11489,10 @@
         <v>9</v>
       </c>
       <c r="F374" t="n">
-        <v>2.69293924466338</v>
+        <v>2.68324607329843</v>
       </c>
       <c r="G374" t="n">
-        <v>-3.69003947874087</v>
+        <v>-3.69973265010583</v>
       </c>
     </row>
     <row r="375">
@@ -11512,10 +11512,10 @@
         <v>9</v>
       </c>
       <c r="F375" t="n">
-        <v>1.9019019019019</v>
+        <v>1.9047619047619</v>
       </c>
       <c r="G375" t="n">
-        <v>-3.6522446869898</v>
+        <v>-3.6493846841298</v>
       </c>
     </row>
     <row r="376">
@@ -11535,10 +11535,10 @@
         <v>9</v>
       </c>
       <c r="F376" t="n">
-        <v>3.13931218252977</v>
+        <v>3.12863070539419</v>
       </c>
       <c r="G376" t="n">
-        <v>-3.33596692432829</v>
+        <v>-3.34664840146386</v>
       </c>
     </row>
     <row r="377">
@@ -11558,10 +11558,10 @@
         <v>9</v>
       </c>
       <c r="F377" t="n">
-        <v>2.45438547744744</v>
+        <v>2.45052709450712</v>
       </c>
       <c r="G377" t="n">
-        <v>-3.23674384211081</v>
+        <v>-3.24060222505113</v>
       </c>
     </row>
     <row r="378">
@@ -11581,10 +11581,10 @@
         <v>9</v>
       </c>
       <c r="F378" t="n">
-        <v>2.69928784746152</v>
+        <v>2.68971042692</v>
       </c>
       <c r="G378" t="n">
-        <v>-3.13601687260156</v>
+        <v>-3.14559429314309</v>
       </c>
     </row>
     <row r="379">
@@ -11604,10 +11604,10 @@
         <v>9</v>
       </c>
       <c r="F379" t="n">
-        <v>2.79778393351801</v>
+        <v>2.79417189229067</v>
       </c>
       <c r="G379" t="n">
-        <v>-3.3697708843382</v>
+        <v>-3.37338292556554</v>
       </c>
     </row>
     <row r="380">
@@ -11627,10 +11627,10 @@
         <v>9</v>
       </c>
       <c r="F380" t="n">
-        <v>2.05729166666667</v>
+        <v>2.05194805194805</v>
       </c>
       <c r="G380" t="n">
-        <v>-3.33511997574498</v>
+        <v>-3.34046359046359</v>
       </c>
     </row>
     <row r="381">
@@ -11650,10 +11650,10 @@
         <v>9</v>
       </c>
       <c r="F381" t="n">
-        <v>2.87539936102236</v>
+        <v>2.8666072111097</v>
       </c>
       <c r="G381" t="n">
-        <v>-3.25934369282568</v>
+        <v>-3.26813584273835</v>
       </c>
     </row>
     <row r="382">
@@ -11673,10 +11673,10 @@
         <v>9</v>
       </c>
       <c r="F382" t="n">
-        <v>1.88992042440318</v>
+        <v>1.88492063492063</v>
       </c>
       <c r="G382" t="n">
-        <v>-3.19157526111935</v>
+        <v>-3.1965750506019</v>
       </c>
     </row>
     <row r="383">
@@ -11696,10 +11696,10 @@
         <v>9</v>
       </c>
       <c r="F383" t="n">
-        <v>2.19985085756898</v>
+        <v>2.19616601526149</v>
       </c>
       <c r="G383" t="n">
-        <v>-3.96141597897998</v>
+        <v>-3.96510082128747</v>
       </c>
     </row>
     <row r="384">
@@ -11719,10 +11719,10 @@
         <v>9</v>
       </c>
       <c r="F384" t="n">
-        <v>2.26215305631317</v>
+        <v>2.25925332478769</v>
       </c>
       <c r="G384" t="n">
-        <v>-3.67284458852903</v>
+        <v>-3.67574432005451</v>
       </c>
     </row>
     <row r="385">
@@ -11742,10 +11742,10 @@
         <v>9</v>
       </c>
       <c r="F385" t="n">
-        <v>2.79620853080569</v>
+        <v>2.80151946818614</v>
       </c>
       <c r="G385" t="n">
-        <v>-2.71039939870973</v>
+        <v>-2.70508846132928</v>
       </c>
     </row>
     <row r="386">
@@ -11765,10 +11765,10 @@
         <v>9</v>
       </c>
       <c r="F386" t="n">
-        <v>2.35060889266497</v>
+        <v>2.34894580444319</v>
       </c>
       <c r="G386" t="n">
-        <v>-2.86385704509786</v>
+        <v>-2.86552013331964</v>
       </c>
     </row>
     <row r="387">
@@ -11788,10 +11788,10 @@
         <v>9</v>
       </c>
       <c r="F387" t="n">
-        <v>2.49649368863955</v>
+        <v>2.48742314141979</v>
       </c>
       <c r="G387" t="n">
-        <v>-3.72668227702568</v>
+        <v>-3.73575282424545</v>
       </c>
     </row>
     <row r="388">
@@ -11811,10 +11811,10 @@
         <v>9</v>
       </c>
       <c r="F388" t="n">
-        <v>1.4291719209752</v>
+        <v>1.42797144057119</v>
       </c>
       <c r="G388" t="n">
-        <v>-2.85777336123075</v>
+        <v>-2.85897384163476</v>
       </c>
     </row>
     <row r="389">
@@ -11834,10 +11834,10 @@
         <v>9</v>
       </c>
       <c r="F389" t="n">
-        <v>2.39172592113769</v>
+        <v>2.39018087855297</v>
       </c>
       <c r="G389" t="n">
-        <v>-3.16733914519207</v>
+        <v>-3.16888418777678</v>
       </c>
     </row>
     <row r="390">
@@ -11857,10 +11857,10 @@
         <v>9</v>
       </c>
       <c r="F390" t="n">
-        <v>2.7027027027027</v>
+        <v>2.69662921348315</v>
       </c>
       <c r="G390" t="n">
-        <v>-2.80504256407871</v>
+        <v>-2.81111605329826</v>
       </c>
     </row>
     <row r="391">
@@ -11880,10 +11880,10 @@
         <v>9</v>
       </c>
       <c r="F391" t="n">
-        <v>1.46310432569975</v>
+        <v>1.44472361809045</v>
       </c>
       <c r="G391" t="n">
-        <v>-4.19172014350353</v>
+        <v>-4.21010085111283</v>
       </c>
     </row>
     <row r="392">
@@ -11903,10 +11903,10 @@
         <v>9</v>
       </c>
       <c r="F392" t="n">
-        <v>1.87374525987062</v>
+        <v>1.86874304783092</v>
       </c>
       <c r="G392" t="n">
-        <v>-3.54677528218143</v>
+        <v>-3.55177749422113</v>
       </c>
     </row>
     <row r="393">
@@ -11926,10 +11926,10 @@
         <v>9</v>
       </c>
       <c r="F393" t="n">
-        <v>2.23463687150838</v>
+        <v>2.22139948167345</v>
       </c>
       <c r="G393" t="n">
-        <v>-3.00363158975026</v>
+        <v>-3.01686897958519</v>
       </c>
     </row>
     <row r="394">
@@ -11949,10 +11949,10 @@
         <v>9</v>
       </c>
       <c r="F394" t="n">
-        <v>2.5675225075025</v>
+        <v>2.55474452554745</v>
       </c>
       <c r="G394" t="n">
-        <v>-3.41073836206272</v>
+        <v>-3.42351634401777</v>
       </c>
     </row>
     <row r="395">
@@ -11972,10 +11972,10 @@
         <v>9</v>
       </c>
       <c r="F395" t="n">
-        <v>2.16358839050132</v>
+        <v>2.15675960021042</v>
       </c>
       <c r="G395" t="n">
-        <v>-2.83092313529451</v>
+        <v>-2.83775192558541</v>
       </c>
     </row>
     <row r="396">
@@ -11995,10 +11995,10 @@
         <v>9</v>
       </c>
       <c r="F396" t="n">
-        <v>2.2801865607186</v>
+        <v>2.27625452664252</v>
       </c>
       <c r="G396" t="n">
-        <v>-4.37933852408768</v>
+        <v>-4.38327055816376</v>
       </c>
     </row>
     <row r="397">
@@ -12018,10 +12018,10 @@
         <v>9</v>
       </c>
       <c r="F397" t="n">
-        <v>2.37700386954118</v>
+        <v>2.3783185840708</v>
       </c>
       <c r="G397" t="n">
-        <v>-2.88907151848542</v>
+        <v>-2.88775680395581</v>
       </c>
     </row>
     <row r="398">
@@ -12041,10 +12041,10 @@
         <v>9</v>
       </c>
       <c r="F398" t="n">
-        <v>3.01175318315377</v>
+        <v>2.99707602339181</v>
       </c>
       <c r="G398" t="n">
-        <v>-4.83735647007959</v>
+        <v>-4.85203362984155</v>
       </c>
     </row>
     <row r="399">
@@ -12064,10 +12064,10 @@
         <v>9</v>
       </c>
       <c r="F399" t="n">
-        <v>1.88909201706277</v>
+        <v>1.88564476885645</v>
       </c>
       <c r="G399" t="n">
-        <v>-2.80427469132272</v>
+        <v>-2.80772193952903</v>
       </c>
     </row>
     <row r="400">
@@ -12087,10 +12087,10 @@
         <v>9</v>
       </c>
       <c r="F400" t="n">
-        <v>2.60928043039677</v>
+        <v>2.60262946069225</v>
       </c>
       <c r="G400" t="n">
-        <v>-5.32005945537823</v>
+        <v>-5.32671042508276</v>
       </c>
     </row>
     <row r="401">
@@ -12110,10 +12110,10 @@
         <v>9</v>
       </c>
       <c r="F401" t="n">
-        <v>2.07055214723926</v>
+        <v>2.0532319391635</v>
       </c>
       <c r="G401" t="n">
-        <v>-3.85592947316584</v>
+        <v>-3.8732496812416</v>
       </c>
     </row>
     <row r="402">
@@ -12133,10 +12133,10 @@
         <v>9</v>
       </c>
       <c r="F402" t="n">
-        <v>2.00645756457565</v>
+        <v>2</v>
       </c>
       <c r="G402" t="n">
-        <v>-3.25063258990902</v>
+        <v>-3.25709015448467</v>
       </c>
     </row>
     <row r="403">
@@ -12156,10 +12156,10 @@
         <v>9</v>
       </c>
       <c r="F403" t="n">
-        <v>1.59347065682083</v>
+        <v>1.59409020217729</v>
       </c>
       <c r="G403" t="n">
-        <v>-3.93347070609518</v>
+        <v>-3.93285116073871</v>
       </c>
     </row>
     <row r="404">
@@ -12179,10 +12179,10 @@
         <v>9</v>
       </c>
       <c r="F404" t="n">
-        <v>1.43507972665148</v>
+        <v>1.4324693042292</v>
       </c>
       <c r="G404" t="n">
-        <v>-2.62884721398779</v>
+        <v>-2.63145763641007</v>
       </c>
     </row>
     <row r="405">
@@ -12202,10 +12202,10 @@
         <v>9</v>
       </c>
       <c r="F405" t="n">
-        <v>1.44754316069057</v>
+        <v>1.44218047102408</v>
       </c>
       <c r="G405" t="n">
-        <v>-2.54465449860722</v>
+        <v>-2.55001718827371</v>
       </c>
     </row>
     <row r="406">
@@ -12225,10 +12225,10 @@
         <v>9</v>
       </c>
       <c r="F406" t="n">
-        <v>2.2913651712494</v>
+        <v>2.28750300987238</v>
       </c>
       <c r="G406" t="n">
-        <v>-3.16157411561215</v>
+        <v>-3.16543627698917</v>
       </c>
     </row>
     <row r="407">
@@ -12248,10 +12248,10 @@
         <v>9</v>
       </c>
       <c r="F407" t="n">
-        <v>1.57090291536937</v>
+        <v>1.5694591728526</v>
       </c>
       <c r="G407" t="n">
-        <v>-3.35086095376292</v>
+        <v>-3.35230469627969</v>
       </c>
     </row>
     <row r="408">
@@ -12271,10 +12271,10 @@
         <v>9</v>
       </c>
       <c r="F408" t="n">
-        <v>1.55127836828498</v>
+        <v>1.546170365068</v>
       </c>
       <c r="G408" t="n">
-        <v>-2.58781778826859</v>
+        <v>-2.59292579148557</v>
       </c>
     </row>
     <row r="409">
@@ -12294,10 +12294,10 @@
         <v>9</v>
       </c>
       <c r="F409" t="n">
-        <v>1.6069826250102</v>
+        <v>1.60554197229014</v>
       </c>
       <c r="G409" t="n">
-        <v>-3.03649289836459</v>
+        <v>-3.03793355108465</v>
       </c>
     </row>
     <row r="410">
@@ -12317,10 +12317,10 @@
         <v>9</v>
       </c>
       <c r="F410" t="n">
-        <v>1.05501130369254</v>
+        <v>1.05184072126221</v>
       </c>
       <c r="G410" t="n">
-        <v>-2.43428290725116</v>
+        <v>-2.43745348968149</v>
       </c>
     </row>
     <row r="411">
@@ -12340,10 +12340,10 @@
         <v>9</v>
       </c>
       <c r="F411" t="n">
-        <v>2.05720517523422</v>
+        <v>2.04938271604938</v>
       </c>
       <c r="G411" t="n">
-        <v>-3.00682559849125</v>
+        <v>-3.01464805767609</v>
       </c>
     </row>
     <row r="412">
@@ -12363,10 +12363,10 @@
         <v>9</v>
       </c>
       <c r="F412" t="n">
-        <v>1.72160403107285</v>
+        <v>1.71440518503032</v>
       </c>
       <c r="G412" t="n">
-        <v>-2.57792281525506</v>
+        <v>-2.5851216612976</v>
       </c>
     </row>
     <row r="413">
@@ -12386,10 +12386,10 @@
         <v>9</v>
       </c>
       <c r="F413" t="n">
-        <v>1.43143429716576</v>
+        <v>1.42612664004564</v>
       </c>
       <c r="G413" t="n">
-        <v>-2.44873688685706</v>
+        <v>-2.45404454397719</v>
       </c>
     </row>
     <row r="414">
@@ -12409,10 +12409,10 @@
         <v>9</v>
       </c>
       <c r="F414" t="n">
-        <v>1.87418816106884</v>
+        <v>1.86691312384473</v>
       </c>
       <c r="G414" t="n">
-        <v>-2.3944627102842</v>
+        <v>-2.40173774750831</v>
       </c>
     </row>
     <row r="415">
@@ -12432,10 +12432,10 @@
         <v>9</v>
       </c>
       <c r="F415" t="n">
-        <v>1.50225338007011</v>
+        <v>1.49700598802395</v>
       </c>
       <c r="G415" t="n">
-        <v>-2.42713158576133</v>
+        <v>-2.43237897780748</v>
       </c>
     </row>
     <row r="416">
@@ -12455,10 +12455,10 @@
         <v>9</v>
       </c>
       <c r="F416" t="n">
-        <v>1.99460916442049</v>
+        <v>1.98817839871037</v>
       </c>
       <c r="G416" t="n">
-        <v>-2.99138523333862</v>
+        <v>-2.99781599904873</v>
       </c>
     </row>
     <row r="417">
@@ -12501,10 +12501,10 @@
         <v>9</v>
       </c>
       <c r="F418" t="n">
-        <v>1.8111254851229</v>
+        <v>1.80598555211558</v>
       </c>
       <c r="G418" t="n">
-        <v>-2.85655589488725</v>
+        <v>-2.86169582789456</v>
       </c>
     </row>
     <row r="419">
@@ -12524,10 +12524,10 @@
         <v>9</v>
       </c>
       <c r="F419" t="n">
-        <v>1.92539109506619</v>
+        <v>1.91616766467066</v>
       </c>
       <c r="G419" t="n">
-        <v>-3.10605544581432</v>
+        <v>-3.11527887620985</v>
       </c>
     </row>
     <row r="420">
@@ -12547,10 +12547,10 @@
         <v>9</v>
       </c>
       <c r="F420" t="n">
-        <v>1.5576962492314</v>
+        <v>1.55038759689922</v>
       </c>
       <c r="G420" t="n">
-        <v>-2.62732577720032</v>
+        <v>-2.63463442953249</v>
       </c>
     </row>
     <row r="421">
@@ -12570,10 +12570,10 @@
         <v>9</v>
       </c>
       <c r="F421" t="n">
-        <v>2.26922229565984</v>
+        <v>2.25926738319807</v>
       </c>
       <c r="G421" t="n">
-        <v>-2.87866661831623</v>
+        <v>-2.888621530778</v>
       </c>
     </row>
     <row r="422">
@@ -12593,10 +12593,10 @@
         <v>9</v>
       </c>
       <c r="F422" t="n">
-        <v>1.83971774193548</v>
+        <v>1.83049147442327</v>
       </c>
       <c r="G422" t="n">
-        <v>-3.32882158390721</v>
+        <v>-3.33804785141943</v>
       </c>
     </row>
   </sheetData>
